--- a/CHGG.xlsx
+++ b/CHGG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CB049E-305B-4497-B460-B444FB7AA9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BEEE2E-C958-4EC7-8875-4409A299D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51105" yWindow="1710" windowWidth="21600" windowHeight="18840" activeTab="1" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
+    <workbookView xWindow="-27945" yWindow="1260" windowWidth="27480" windowHeight="18705" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Price</t>
   </si>
@@ -160,13 +160,43 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -177,6 +207,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -198,8 +235,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -218,10 +256,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -251,7 +290,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>8659</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>129886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -301,7 +340,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>25977</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>90920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -663,9 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853FF35D-C759-48E7-97C1-902D05ECE912}">
   <dimension ref="J2:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -737,13 +774,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCFFC2-AFE9-4B81-83F2-83199EB3420A}">
-  <dimension ref="A1:AT27"/>
+  <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -754,7 +791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1005,8 +1042,8 @@
         <v>135</v>
       </c>
       <c r="R5" s="6">
-        <f>+Q5-5</f>
-        <v>130</v>
+        <f>+N5*0.9</f>
+        <v>169.1883</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="5">
@@ -1062,7 +1099,7 @@
       </c>
       <c r="AJ5" s="5">
         <f>SUM(O5:R5)</f>
-        <v>602.49699999999996</v>
+        <v>641.68529999999998</v>
       </c>
     </row>
     <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,58 +1151,58 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="8">
+      <c r="T6" s="2">
         <v>5.4329999999999998</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="2">
         <v>39.021999999999998</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="2">
         <v>114.215</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="2">
         <v>127.012</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="2">
         <v>145.66900000000001</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="2">
         <v>175.06</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="2">
         <v>210.98500000000001</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="2">
         <v>189.84899999999999</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="2">
         <v>119.601</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="2">
         <v>80.174999999999997</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="2">
         <v>79.995999999999995</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="2">
         <v>92.182000000000002</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="2">
         <v>205.417</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="2">
         <f>SUM(C6:F6)</f>
         <v>254.904</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="2">
         <f>SUM(G6:J6)</f>
         <v>197.39600000000002</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="2">
         <f>SUM(K6:N6)</f>
         <v>225.941</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="2">
         <f>SUM(O6:R6)</f>
         <v>91.908000000000001</v>
       </c>
@@ -1175,131 +1212,131 @@
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <f>+C5-C6</f>
+        <f t="shared" ref="C7:P7" si="1">+C5-C6</f>
         <v>126.99399999999999</v>
       </c>
       <c r="D7" s="4">
-        <f>+D5-D6</f>
+        <f t="shared" si="1"/>
         <v>137.77000000000001</v>
       </c>
       <c r="E7" s="4">
-        <f>+E5-E6</f>
+        <f t="shared" si="1"/>
         <v>104.84</v>
       </c>
       <c r="F7" s="4">
-        <f>+F5-F6</f>
+        <f t="shared" si="1"/>
         <v>151.75700000000001</v>
       </c>
       <c r="G7" s="4">
-        <f>+G5-G6</f>
+        <f t="shared" si="1"/>
         <v>147.15899999999999</v>
       </c>
       <c r="H7" s="4">
-        <f>+H5-H6</f>
+        <f t="shared" si="1"/>
         <v>149.03700000000001</v>
       </c>
       <c r="I7" s="4">
-        <f>+I5-I6</f>
+        <f t="shared" si="1"/>
         <v>119.536</v>
       </c>
       <c r="J7" s="4">
-        <f>+J5-J6</f>
+        <f t="shared" si="1"/>
         <v>153.76900000000001</v>
       </c>
       <c r="K7" s="4">
-        <f>+K5-K6</f>
+        <f t="shared" si="1"/>
         <v>138.45099999999999</v>
       </c>
       <c r="L7" s="4">
-        <f>+L5-L6</f>
+        <f t="shared" si="1"/>
         <v>135.441</v>
       </c>
       <c r="M7" s="4">
-        <f>+M5-M6</f>
+        <f t="shared" si="1"/>
         <v>74.279000000000011</v>
       </c>
       <c r="N7" s="4">
-        <f>+N5-N6</f>
+        <f t="shared" si="1"/>
         <v>142.18299999999999</v>
       </c>
       <c r="O7" s="4">
-        <f>+O5-O6</f>
+        <f t="shared" si="1"/>
         <v>127.85299999999999</v>
       </c>
       <c r="P7" s="4">
-        <f>+P5-P6</f>
+        <f t="shared" si="1"/>
         <v>117.73599999999999</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="2">
-        <f>+T5-T6</f>
+        <f t="shared" ref="T7:AJ7" si="2">+T5-T6</f>
         <v>2.173</v>
       </c>
       <c r="U7" s="2">
-        <f>+U5-U6</f>
+        <f t="shared" si="2"/>
         <v>8.8120000000000047</v>
       </c>
       <c r="V7" s="2">
-        <f>+V5-V6</f>
+        <f t="shared" si="2"/>
         <v>34.706999999999994</v>
       </c>
       <c r="W7" s="2">
-        <f>+W5-W6</f>
+        <f t="shared" si="2"/>
         <v>45.006</v>
       </c>
       <c r="X7" s="2">
-        <f>+X5-X6</f>
+        <f t="shared" si="2"/>
         <v>67.664999999999992</v>
       </c>
       <c r="Y7" s="2">
-        <f>+Y5-Y6</f>
+        <f t="shared" si="2"/>
         <v>80.514999999999986</v>
       </c>
       <c r="Z7" s="2">
-        <f>+Z5-Z6</f>
+        <f t="shared" si="2"/>
         <v>93.84899999999999</v>
       </c>
       <c r="AA7" s="2">
-        <f>+AA5-AA6</f>
+        <f t="shared" si="2"/>
         <v>111.524</v>
       </c>
       <c r="AB7" s="2">
-        <f>+AB5-AB6</f>
+        <f t="shared" si="2"/>
         <v>134.489</v>
       </c>
       <c r="AC7" s="2">
-        <f>+AC5-AC6</f>
+        <f t="shared" si="2"/>
         <v>174.89100000000002</v>
       </c>
       <c r="AD7" s="2">
-        <f>+AD5-AD6</f>
+        <f t="shared" si="2"/>
         <v>241.08800000000002</v>
       </c>
       <c r="AE7" s="2">
-        <f>+AE5-AE6</f>
+        <f t="shared" si="2"/>
         <v>318.74399999999997</v>
       </c>
       <c r="AF7" s="2">
-        <f>+AF5-AF6</f>
+        <f t="shared" si="2"/>
         <v>438.92099999999994</v>
       </c>
       <c r="AG7" s="2">
-        <f>+AG5-AG6</f>
+        <f t="shared" si="2"/>
         <v>521.36099999999999</v>
       </c>
       <c r="AH7" s="2">
-        <f>+AH5-AH6</f>
+        <f t="shared" si="2"/>
         <v>569.50099999999998</v>
       </c>
       <c r="AI7" s="2">
-        <f>+AI5-AI6</f>
+        <f t="shared" si="2"/>
         <v>490.35399999999993</v>
       </c>
       <c r="AJ7" s="2">
-        <f>+AJ5-AJ6</f>
-        <v>510.58899999999994</v>
+        <f t="shared" si="2"/>
+        <v>549.77729999999997</v>
       </c>
     </row>
     <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1351,58 +1388,58 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="8">
+      <c r="T8" s="2">
         <v>1.3939999999999999</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="2">
         <v>7.85</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="2">
         <v>18.885000000000002</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="2">
         <v>29.591000000000001</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="2">
         <v>39.314999999999998</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="2">
         <v>41.944000000000003</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="2">
         <v>49.386000000000003</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="2">
         <v>59.390999999999998</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="2">
         <v>66.331000000000003</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="2">
         <v>81.926000000000002</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="2">
         <v>114.291</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="2">
         <v>139.77199999999999</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="2">
         <v>170.905</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="2">
         <f>SUM(C8:F8)</f>
         <v>178.821</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="2">
         <f>SUM(G8:J8)</f>
         <v>196.637</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="2">
         <f>SUM(K8:N8)</f>
         <v>191.70499999999998</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="2">
         <f>SUM(O8:R8)</f>
         <v>88.086000000000013</v>
       </c>
@@ -1456,58 +1493,58 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="8">
+      <c r="T9" s="2">
         <v>1.6279999999999999</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="2">
         <v>8.5120000000000005</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="2">
         <v>24.422000000000001</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="2">
         <v>28.4</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="2">
         <v>51.082000000000001</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="2">
         <v>50.302</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="2">
         <v>72.314999999999998</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="2">
         <v>64.081999999999994</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="2">
         <v>53.948999999999998</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AC9" s="2">
         <v>51.24</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="2">
         <v>54.713999999999999</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AE9" s="2">
         <v>63.569000000000003</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="2">
         <v>81.914000000000001</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="2">
         <f>SUM(C9:F9)</f>
         <v>105.41399999999999</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="2">
         <f>SUM(G9:J9)</f>
         <v>147.66</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="2">
         <f>SUM(K9:N9)</f>
         <v>126.59099999999999</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="2">
         <f>SUM(O9:R9)</f>
         <v>53.92</v>
       </c>
@@ -1561,58 +1598,58 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="8">
+      <c r="T10" s="2">
         <v>1.9770000000000001</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="2">
         <v>7.5910000000000002</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="2">
         <v>15.362</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="2">
         <v>20.327999999999999</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="2">
         <v>25.117000000000001</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="2">
         <v>40.485999999999997</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="2">
         <v>41.837000000000003</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="2">
         <v>45.209000000000003</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="2">
         <v>55.372</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="2">
         <v>64.411000000000001</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AD10" s="2">
         <v>77.713999999999999</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="2">
         <v>97.585999999999999</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="2">
         <v>129.34899999999999</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="2">
         <f>SUM(C10:F10)</f>
         <v>159.01900000000001</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="2">
         <f>SUM(G10:J10)</f>
         <v>216.24700000000001</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI10" s="2">
         <f>SUM(K10:N10)</f>
         <v>239.78299999999996</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AJ10" s="2">
         <f>SUM(O10:R10)</f>
         <v>109.55</v>
       </c>
@@ -1622,130 +1659,130 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM(C8:C10)</f>
+        <f t="shared" ref="C11:P11" si="3">SUM(C8:C10)</f>
         <v>110.215</v>
       </c>
       <c r="D11" s="4">
-        <f>SUM(D8:D10)</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="E11" s="4">
-        <f>SUM(E8:E10)</f>
+        <f t="shared" si="3"/>
         <v>104.47899999999998</v>
       </c>
       <c r="F11" s="4">
-        <f>SUM(F8:F10)</f>
+        <f t="shared" si="3"/>
         <v>125.56</v>
       </c>
       <c r="G11" s="4">
-        <f>SUM(G8:G10)</f>
+        <f t="shared" si="3"/>
         <v>141.78299999999999</v>
       </c>
       <c r="H11" s="4">
-        <f>SUM(H8:H10)</f>
+        <f t="shared" si="3"/>
         <v>141.69400000000002</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM(I8:I10)</f>
+        <f t="shared" si="3"/>
         <v>130.971</v>
       </c>
       <c r="J11" s="4">
-        <f>SUM(J8:J10)</f>
+        <f t="shared" si="3"/>
         <v>146.096</v>
       </c>
       <c r="K11" s="4">
-        <f>SUM(K8:K10)</f>
+        <f t="shared" si="3"/>
         <v>142.89699999999999</v>
       </c>
       <c r="L11" s="4">
-        <f>SUM(L8:L10)</f>
+        <f t="shared" si="3"/>
         <v>154.137</v>
       </c>
       <c r="M11" s="4">
-        <f>SUM(M8:M10)</f>
+        <f t="shared" si="3"/>
         <v>132.149</v>
       </c>
       <c r="N11" s="4">
-        <f>SUM(N8:N10)</f>
+        <f t="shared" si="3"/>
         <v>128.89600000000002</v>
       </c>
       <c r="O11" s="4">
-        <f>SUM(O8:O10)</f>
+        <f t="shared" si="3"/>
         <v>130.34399999999999</v>
       </c>
       <c r="P11" s="4">
-        <f>SUM(P8:P10)</f>
+        <f t="shared" si="3"/>
         <v>121.21199999999999</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="2">
-        <f>+T10+T9+T8</f>
+        <f t="shared" ref="T11:AG11" si="4">+T10+T9+T8</f>
         <v>4.9989999999999997</v>
       </c>
       <c r="U11" s="2">
-        <f>+U10+U9+U8</f>
+        <f t="shared" si="4"/>
         <v>23.953000000000003</v>
       </c>
       <c r="V11" s="2">
-        <f>+V10+V9+V8</f>
+        <f t="shared" si="4"/>
         <v>58.668999999999997</v>
       </c>
       <c r="W11" s="2">
-        <f>+W10+W9+W8</f>
+        <f t="shared" si="4"/>
         <v>78.318999999999988</v>
       </c>
       <c r="X11" s="2">
-        <f>+X10+X9+X8</f>
+        <f t="shared" si="4"/>
         <v>115.514</v>
       </c>
       <c r="Y11" s="2">
-        <f>+Y10+Y9+Y8</f>
+        <f t="shared" si="4"/>
         <v>132.732</v>
       </c>
       <c r="Z11" s="2">
-        <f>+Z10+Z9+Z8</f>
+        <f t="shared" si="4"/>
         <v>163.53800000000001</v>
       </c>
       <c r="AA11" s="2">
-        <f>+AA10+AA9+AA8</f>
+        <f t="shared" si="4"/>
         <v>168.68199999999999</v>
       </c>
       <c r="AB11" s="2">
-        <f>+AB10+AB9+AB8</f>
+        <f t="shared" si="4"/>
         <v>175.65199999999999</v>
       </c>
       <c r="AC11" s="2">
-        <f>+AC10+AC9+AC8</f>
+        <f t="shared" si="4"/>
         <v>197.577</v>
       </c>
       <c r="AD11" s="2">
-        <f>+AD10+AD9+AD8</f>
+        <f t="shared" si="4"/>
         <v>246.71899999999999</v>
       </c>
       <c r="AE11" s="2">
-        <f>+AE10+AE9+AE8</f>
+        <f t="shared" si="4"/>
         <v>300.92700000000002</v>
       </c>
       <c r="AF11" s="2">
-        <f>+AF10+AF9+AF8</f>
+        <f t="shared" si="4"/>
         <v>382.16800000000001</v>
       </c>
       <c r="AG11" s="2">
-        <f>+AG10+AG9+AG8</f>
+        <f t="shared" si="4"/>
         <v>443.25400000000002</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" ref="AH11:AJ11" si="1">+AH10+AH9+AH8</f>
+        <f t="shared" ref="AH11:AJ11" si="5">+AH10+AH9+AH8</f>
         <v>560.5440000000001</v>
       </c>
       <c r="AI11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>558.07899999999995</v>
       </c>
       <c r="AJ11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>251.55600000000001</v>
       </c>
     </row>
@@ -1754,59 +1791,59 @@
         <v>20</v>
       </c>
       <c r="C12" s="4">
-        <f>C7-C11</f>
+        <f t="shared" ref="C12:P12" si="6">C7-C11</f>
         <v>16.778999999999982</v>
       </c>
       <c r="D12" s="4">
-        <f>D7-D11</f>
+        <f t="shared" si="6"/>
         <v>34.77000000000001</v>
       </c>
       <c r="E12" s="4">
-        <f>E7-E11</f>
+        <f t="shared" si="6"/>
         <v>0.36100000000001842</v>
       </c>
       <c r="F12" s="4">
-        <f>F7-F11</f>
+        <f t="shared" si="6"/>
         <v>26.197000000000003</v>
       </c>
       <c r="G12" s="4">
-        <f>G7-G11</f>
+        <f t="shared" si="6"/>
         <v>5.3760000000000048</v>
       </c>
       <c r="H12" s="4">
-        <f>H7-H11</f>
+        <f t="shared" si="6"/>
         <v>7.3429999999999893</v>
       </c>
       <c r="I12" s="4">
-        <f>I7-I11</f>
+        <f t="shared" si="6"/>
         <v>-11.435000000000002</v>
       </c>
       <c r="J12" s="4">
-        <f>J7-J11</f>
+        <f t="shared" si="6"/>
         <v>7.6730000000000018</v>
       </c>
       <c r="K12" s="4">
-        <f>K7-K11</f>
+        <f t="shared" si="6"/>
         <v>-4.445999999999998</v>
       </c>
       <c r="L12" s="4">
-        <f>L7-L11</f>
+        <f t="shared" si="6"/>
         <v>-18.695999999999998</v>
       </c>
       <c r="M12" s="4">
-        <f>M7-M11</f>
+        <f t="shared" si="6"/>
         <v>-57.86999999999999</v>
       </c>
       <c r="N12" s="4">
-        <f>N7-N11</f>
+        <f t="shared" si="6"/>
         <v>13.286999999999978</v>
       </c>
       <c r="O12" s="4">
-        <f>O7-O11</f>
+        <f t="shared" si="6"/>
         <v>-2.4909999999999997</v>
       </c>
       <c r="P12" s="4">
-        <f>P7-P11</f>
+        <f t="shared" si="6"/>
         <v>-3.4759999999999991</v>
       </c>
       <c r="Q12" s="4"/>
@@ -1822,60 +1859,60 @@
         <v>-4.0609999999999999</v>
       </c>
       <c r="W12" s="2">
-        <f>+W7-W11</f>
+        <f t="shared" ref="W12:AG12" si="7">+W7-W11</f>
         <v>-33.312999999999988</v>
       </c>
       <c r="X12" s="2">
-        <f>+X7-X11</f>
+        <f t="shared" si="7"/>
         <v>-47.849000000000004</v>
       </c>
       <c r="Y12" s="2">
-        <f>+Y7-Y11</f>
+        <f t="shared" si="7"/>
         <v>-52.217000000000013</v>
       </c>
       <c r="Z12" s="2">
-        <f>+Z7-Z11</f>
+        <f t="shared" si="7"/>
         <v>-69.689000000000021</v>
       </c>
       <c r="AA12" s="2">
-        <f>+AA7-AA11</f>
+        <f t="shared" si="7"/>
         <v>-57.157999999999987</v>
       </c>
       <c r="AB12" s="2">
-        <f>+AB7-AB11</f>
+        <f t="shared" si="7"/>
         <v>-41.162999999999982</v>
       </c>
       <c r="AC12" s="2">
-        <f>+AC7-AC11</f>
+        <f t="shared" si="7"/>
         <v>-22.685999999999979</v>
       </c>
       <c r="AD12" s="2">
-        <f>+AD7-AD11</f>
+        <f t="shared" si="7"/>
         <v>-5.6309999999999718</v>
       </c>
       <c r="AE12" s="2">
-        <f>+AE7-AE11</f>
+        <f t="shared" si="7"/>
         <v>17.81699999999995</v>
       </c>
       <c r="AF12" s="2">
-        <f>+AF7-AF11</f>
+        <f t="shared" si="7"/>
         <v>56.752999999999929</v>
       </c>
       <c r="AG12" s="2">
-        <f>+AG7-AG11</f>
+        <f t="shared" si="7"/>
         <v>78.106999999999971</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" ref="AH12:AJ12" si="2">+AH7-AH11</f>
+        <f t="shared" ref="AH12:AJ12" si="8">+AH7-AH11</f>
         <v>8.9569999999998799</v>
       </c>
       <c r="AI12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-67.725000000000023</v>
       </c>
       <c r="AJ12" s="2">
-        <f t="shared" si="2"/>
-        <v>259.0329999999999</v>
+        <f t="shared" si="8"/>
+        <v>298.22129999999993</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1927,58 +1964,58 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="8">
+      <c r="T13" s="2">
         <v>-5.9729999999999999</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="2">
         <v>-5.9729999999999999</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="2">
         <v>-1.7030000000000001</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="2">
         <v>-1.7030000000000001</v>
       </c>
-      <c r="X13" s="8">
+      <c r="X13" s="2">
         <v>-3.7589999999999999</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="2">
         <v>-4.1769999999999996</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="2">
         <v>0.56200000000000006</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA13" s="2">
         <v>-3.1E-2</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="2">
         <v>-0.46800000000000003</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AC13" s="2">
         <v>0.48599999999999999</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AD13" s="2">
         <v>-7.2380000000000004</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AE13" s="2">
         <v>-24.788</v>
       </c>
-      <c r="AF13" s="8">
+      <c r="AF13" s="2">
         <v>0</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AG13" s="2">
         <f>SUM(C13:F13)</f>
         <v>4.84</v>
       </c>
-      <c r="AH13" s="8">
+      <c r="AH13" s="2">
         <f>SUM(G13:J13)</f>
         <v>-2.2689999999999997</v>
       </c>
-      <c r="AI13" s="8">
+      <c r="AI13" s="2">
         <f>SUM(K13:N13)</f>
         <v>13.441999999999998</v>
       </c>
-      <c r="AJ13" s="8">
+      <c r="AJ13" s="2">
         <f>SUM(O13:R13)</f>
         <v>16.597999999999999</v>
       </c>
@@ -1988,131 +2025,131 @@
         <v>28</v>
       </c>
       <c r="C14" s="4">
-        <f>C13+C12</f>
+        <f t="shared" ref="C14:P14" si="9">C13+C12</f>
         <v>14.849999999999982</v>
       </c>
       <c r="D14" s="4">
-        <f>D13+D12</f>
+        <f t="shared" si="9"/>
         <v>34.989000000000011</v>
       </c>
       <c r="E14" s="4">
-        <f>E13+E12</f>
+        <f t="shared" si="9"/>
         <v>7.3980000000000183</v>
       </c>
       <c r="F14" s="4">
-        <f>F13+F12</f>
+        <f t="shared" si="9"/>
         <v>25.710000000000004</v>
       </c>
       <c r="G14" s="4">
-        <f>G13+G12</f>
+        <f t="shared" si="9"/>
         <v>9.959000000000005</v>
       </c>
       <c r="H14" s="4">
-        <f>H13+H12</f>
+        <f t="shared" si="9"/>
         <v>7.5359999999999889</v>
       </c>
       <c r="I14" s="4">
-        <f>I13+I12</f>
+        <f t="shared" si="9"/>
         <v>-12.960000000000003</v>
       </c>
       <c r="J14" s="4">
-        <f>J13+J12</f>
+        <f t="shared" si="9"/>
         <v>2.1530000000000022</v>
       </c>
       <c r="K14" s="4">
-        <f>K13+K12</f>
+        <f t="shared" si="9"/>
         <v>6.3620000000000019</v>
       </c>
       <c r="L14" s="4">
-        <f>L13+L12</f>
+        <f t="shared" si="9"/>
         <v>-19.809999999999999</v>
       </c>
       <c r="M14" s="4">
-        <f>M13+M12</f>
+        <f t="shared" si="9"/>
         <v>-58.602999999999987</v>
       </c>
       <c r="N14" s="4">
-        <f>N13+N12</f>
+        <f t="shared" si="9"/>
         <v>17.767999999999979</v>
       </c>
       <c r="O14" s="4">
-        <f>O13+O12</f>
+        <f t="shared" si="9"/>
         <v>7.6390000000000011</v>
       </c>
       <c r="P14" s="4">
-        <f>P13+P12</f>
+        <f t="shared" si="9"/>
         <v>2.9920000000000009</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="2">
-        <f>+T12+T13</f>
+        <f t="shared" ref="T14:AG14" si="10">+T12+T13</f>
         <v>-6.1179999999999994</v>
       </c>
       <c r="U14" s="2">
-        <f>+U12+U13</f>
+        <f t="shared" si="10"/>
         <v>-10.033999999999999</v>
       </c>
       <c r="V14" s="2">
-        <f>+V12+V13</f>
+        <f t="shared" si="10"/>
         <v>-5.7640000000000002</v>
       </c>
       <c r="W14" s="2">
-        <f>+W12+W13</f>
+        <f t="shared" si="10"/>
         <v>-35.015999999999991</v>
       </c>
       <c r="X14" s="2">
-        <f>+X12+X13</f>
+        <f t="shared" si="10"/>
         <v>-51.608000000000004</v>
       </c>
       <c r="Y14" s="2">
-        <f>+Y12+Y13</f>
+        <f t="shared" si="10"/>
         <v>-56.394000000000013</v>
       </c>
       <c r="Z14" s="2">
-        <f>+Z12+Z13</f>
+        <f t="shared" si="10"/>
         <v>-69.127000000000024</v>
       </c>
       <c r="AA14" s="2">
-        <f>+AA12+AA13</f>
+        <f t="shared" si="10"/>
         <v>-57.188999999999986</v>
       </c>
       <c r="AB14" s="2">
-        <f>+AB12+AB13</f>
+        <f t="shared" si="10"/>
         <v>-41.630999999999986</v>
       </c>
       <c r="AC14" s="2">
-        <f>+AC12+AC13</f>
+        <f t="shared" si="10"/>
         <v>-22.199999999999978</v>
       </c>
       <c r="AD14" s="2">
-        <f>+AD12+AD13</f>
+        <f t="shared" si="10"/>
         <v>-12.868999999999971</v>
       </c>
       <c r="AE14" s="2">
-        <f>+AE12+AE13</f>
+        <f t="shared" si="10"/>
         <v>-6.9710000000000498</v>
       </c>
       <c r="AF14" s="2">
-        <f>+AF12+AF13</f>
+        <f t="shared" si="10"/>
         <v>56.752999999999929</v>
       </c>
       <c r="AG14" s="2">
-        <f>+AG12+AG13</f>
+        <f t="shared" si="10"/>
         <v>82.946999999999974</v>
       </c>
       <c r="AH14" s="2">
-        <f t="shared" ref="AH14:AJ14" si="3">+AH12+AH13</f>
+        <f t="shared" ref="AH14:AJ14" si="11">+AH12+AH13</f>
         <v>6.6879999999998798</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>-54.283000000000023</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="3"/>
-        <v>275.63099999999991</v>
+        <f t="shared" si="11"/>
+        <v>314.81929999999994</v>
       </c>
     </row>
     <row r="15" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2164,58 +2201,58 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="8">
+      <c r="T15" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="2">
         <v>1.6719999999999999</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="2">
         <v>-0.2</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="2">
         <v>0.64200000000000002</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="2">
         <v>0.186</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="2">
         <v>1.4790000000000001</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AB15" s="2">
         <v>1.7070000000000001</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AC15" s="2">
         <v>1.802</v>
       </c>
-      <c r="AD15" s="8">
+      <c r="AD15" s="2">
         <v>1.43</v>
       </c>
-      <c r="AE15" s="8">
+      <c r="AE15" s="2">
         <v>2.6339999999999999</v>
       </c>
-      <c r="AF15" s="8">
+      <c r="AF15" s="2">
         <v>0</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="2">
         <f>SUM(C15:F15)</f>
         <v>7.1970000000000001</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="2">
         <f>SUM(G15:J15)</f>
         <v>3.6869999999999994</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AI15" s="2">
         <f>SUM(K15:N15)</f>
         <v>12.279</v>
       </c>
-      <c r="AJ15" s="8">
+      <c r="AJ15" s="2">
         <f>SUM(O15:R15)</f>
         <v>9.0589999999999993</v>
       </c>
@@ -2225,131 +2262,131 @@
         <v>30</v>
       </c>
       <c r="C16" s="4">
-        <f>C14-C15</f>
+        <f t="shared" ref="C16:P16" si="12">C14-C15</f>
         <v>12.028999999999982</v>
       </c>
       <c r="D16" s="4">
-        <f>D14-D15</f>
+        <f t="shared" si="12"/>
         <v>32.76400000000001</v>
       </c>
       <c r="E16" s="4">
-        <f>E14-E15</f>
+        <f t="shared" si="12"/>
         <v>6.6510000000000185</v>
       </c>
       <c r="F16" s="4">
-        <f>F14-F15</f>
+        <f t="shared" si="12"/>
         <v>24.306000000000004</v>
       </c>
       <c r="G16" s="4">
-        <f>G14-G15</f>
+        <f t="shared" si="12"/>
         <v>5.7420000000000053</v>
       </c>
       <c r="H16" s="4">
-        <f>H14-H15</f>
+        <f t="shared" si="12"/>
         <v>7.4759999999999893</v>
       </c>
       <c r="I16" s="4">
-        <f>I14-I15</f>
+        <f t="shared" si="12"/>
         <v>-12.665000000000003</v>
       </c>
       <c r="J16" s="4">
-        <f>J14-J15</f>
+        <f t="shared" si="12"/>
         <v>2.4480000000000022</v>
       </c>
       <c r="K16" s="4">
-        <f>K14-K15</f>
+        <f t="shared" si="12"/>
         <v>2.1860000000000017</v>
       </c>
       <c r="L16" s="4">
-        <f>L14-L15</f>
+        <f t="shared" si="12"/>
         <v>-19.809999999999999</v>
       </c>
       <c r="M16" s="4">
-        <f>M14-M15</f>
+        <f t="shared" si="12"/>
         <v>-58.602999999999987</v>
       </c>
       <c r="N16" s="4">
-        <f>N14-N15</f>
+        <f t="shared" si="12"/>
         <v>9.6649999999999796</v>
       </c>
       <c r="O16" s="4">
-        <f>O14-O15</f>
+        <f t="shared" si="12"/>
         <v>-1.4199999999999982</v>
       </c>
       <c r="P16" s="4">
-        <f>P14-P15</f>
+        <f t="shared" si="12"/>
         <v>2.9920000000000009</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="2">
-        <f>+T14-T15</f>
+        <f t="shared" ref="T16:AG16" si="13">+T14-T15</f>
         <v>-6.145999999999999</v>
       </c>
       <c r="U16" s="2">
-        <f>+U14-U15</f>
+        <f t="shared" si="13"/>
         <v>-10.081</v>
       </c>
       <c r="V16" s="2">
-        <f>+V14-V15</f>
+        <f t="shared" si="13"/>
         <v>-7.4359999999999999</v>
       </c>
       <c r="W16" s="2">
-        <f>+W14-W15</f>
+        <f t="shared" si="13"/>
         <v>-34.815999999999988</v>
       </c>
       <c r="X16" s="2">
-        <f>+X14-X15</f>
+        <f t="shared" si="13"/>
         <v>-51.637000000000008</v>
       </c>
       <c r="Y16" s="2">
-        <f>+Y14-Y15</f>
+        <f t="shared" si="13"/>
         <v>-57.036000000000016</v>
       </c>
       <c r="Z16" s="2">
-        <f>+Z14-Z15</f>
+        <f t="shared" si="13"/>
         <v>-69.313000000000031</v>
       </c>
       <c r="AA16" s="2">
-        <f>+AA14-AA15</f>
+        <f t="shared" si="13"/>
         <v>-58.667999999999985</v>
       </c>
       <c r="AB16" s="2">
-        <f>+AB14-AB15</f>
+        <f t="shared" si="13"/>
         <v>-43.337999999999987</v>
       </c>
       <c r="AC16" s="2">
-        <f>+AC14-AC15</f>
+        <f t="shared" si="13"/>
         <v>-24.001999999999978</v>
       </c>
       <c r="AD16" s="2">
-        <f>+AD14-AD15</f>
+        <f t="shared" si="13"/>
         <v>-14.298999999999971</v>
       </c>
       <c r="AE16" s="2">
-        <f>+AE14-AE15</f>
+        <f t="shared" si="13"/>
         <v>-9.6050000000000502</v>
       </c>
       <c r="AF16" s="2">
-        <f>+AF14-AF15</f>
+        <f t="shared" si="13"/>
         <v>56.752999999999929</v>
       </c>
       <c r="AG16" s="2">
-        <f>+AG14-AG15</f>
+        <f t="shared" si="13"/>
         <v>75.749999999999972</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" ref="AH16:AJ16" si="4">+AH14-AH15</f>
+        <f t="shared" ref="AH16:AJ16" si="14">+AH14-AH15</f>
         <v>3.0009999999998804</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>-66.562000000000026</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="4"/>
-        <v>266.57199999999989</v>
+        <f t="shared" si="14"/>
+        <v>305.76029999999992</v>
       </c>
     </row>
     <row r="17" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2483,328 +2520,471 @@
         <v>31</v>
       </c>
       <c r="G20" s="7">
-        <f>+G5/C5-1</f>
+        <f t="shared" ref="G20:R20" si="15">+G5/C5-1</f>
         <v>1.9488048069846498E-2</v>
       </c>
       <c r="H20" s="7">
-        <f>+H5/D5-1</f>
+        <f t="shared" si="15"/>
         <v>-1.8929050071040621E-2</v>
       </c>
       <c r="I20" s="7">
-        <f>+I5/E5-1</f>
+        <f t="shared" si="15"/>
         <v>-4.1892033360086511E-2</v>
       </c>
       <c r="J20" s="7">
-        <f>+J5/F5-1</f>
+        <f t="shared" si="15"/>
         <v>-1.0960779304660551E-2</v>
       </c>
       <c r="K20" s="7">
-        <f>+K5/G5-1</f>
+        <f t="shared" si="15"/>
         <v>-7.2402642352801583E-2</v>
       </c>
       <c r="L20" s="7">
-        <f>+L5/H5-1</f>
+        <f t="shared" si="15"/>
         <v>-6.0948742046312399E-2</v>
       </c>
       <c r="M20" s="7">
-        <f>+M5/I5-1</f>
+        <f t="shared" si="15"/>
         <v>-4.1793382259209921E-2</v>
       </c>
       <c r="N20" s="7">
-        <f>+N5/J5-1</f>
+        <f t="shared" si="15"/>
         <v>-8.3852763008484765E-2</v>
       </c>
       <c r="O20" s="7">
-        <f>+O5/K5-1</f>
+        <f t="shared" si="15"/>
         <v>-7.0633951844606413E-2</v>
       </c>
       <c r="P20" s="7">
-        <f>+P5/L5-1</f>
+        <f t="shared" si="15"/>
         <v>-0.10776962915566068</v>
       </c>
       <c r="Q20" s="7">
-        <f>+Q5/M5-1</f>
+        <f t="shared" si="15"/>
         <v>-0.14477935307309298</v>
       </c>
-      <c r="U20" s="9">
-        <f>+U5/T5-1</f>
+      <c r="R20" s="7">
+        <f t="shared" si="15"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" ref="U20:AJ20" si="16">+U5/T5-1</f>
         <v>5.2889823823297402</v>
       </c>
-      <c r="V20" s="9">
-        <f>+V5/U5-1</f>
+      <c r="V20" s="8">
+        <f t="shared" si="16"/>
         <v>2.1133085253167199</v>
       </c>
-      <c r="W20" s="9">
-        <f>+W5/V5-1</f>
+      <c r="W20" s="8">
+        <f t="shared" si="16"/>
         <v>0.15508789836290138</v>
       </c>
-      <c r="X20" s="9">
-        <f>+X5/W5-1</f>
+      <c r="X20" s="8">
+        <f t="shared" si="16"/>
         <v>0.24018416677324472</v>
       </c>
-      <c r="Y20" s="9">
-        <f>+Y5/X5-1</f>
+      <c r="Y20" s="8">
+        <f t="shared" si="16"/>
         <v>0.19800406873728504</v>
       </c>
-      <c r="Z20" s="9">
-        <f>+Z5/Y5-1</f>
+      <c r="Z20" s="8">
+        <f t="shared" si="16"/>
         <v>0.19273794385209819</v>
       </c>
-      <c r="AA20" s="9">
-        <f>+AA5/Z5-1</f>
+      <c r="AA20" s="8">
+        <f t="shared" si="16"/>
         <v>-1.1353720385521293E-2</v>
       </c>
-      <c r="AB20" s="9">
-        <f>+AB5/AA5-1</f>
+      <c r="AB20" s="8">
+        <f t="shared" si="16"/>
         <v>-0.15689195780643916</v>
       </c>
-      <c r="AC20" s="9">
-        <f>+AC5/AB5-1</f>
+      <c r="AC20" s="8">
+        <f t="shared" si="16"/>
         <v>3.8411586445747936E-3</v>
       </c>
-      <c r="AD20" s="9">
-        <f>+AD5/AC5-1</f>
+      <c r="AD20" s="8">
+        <f t="shared" si="16"/>
         <v>0.25882712709651612</v>
       </c>
-      <c r="AE20" s="9">
-        <f>+AE5/AD5-1</f>
+      <c r="AE20" s="8">
+        <f t="shared" si="16"/>
         <v>0.27980839904822408</v>
       </c>
-      <c r="AF20" s="9">
-        <f>+AF5/AE5-1</f>
+      <c r="AF20" s="8">
+        <f t="shared" si="16"/>
         <v>0.56801467904196867</v>
       </c>
-      <c r="AG20" s="9">
-        <f>+AG5/AF5-1</f>
+      <c r="AG20" s="8">
+        <f t="shared" si="16"/>
         <v>0.2047481290875286</v>
       </c>
-      <c r="AH20" s="9">
-        <f>+AH5/AG5-1</f>
+      <c r="AH20" s="8">
+        <f t="shared" si="16"/>
         <v>-1.2068043773711179E-2</v>
       </c>
-      <c r="AI20" s="9">
-        <f>+AI5/AH5-1</f>
+      <c r="AI20" s="8">
+        <f t="shared" si="16"/>
         <v>-6.5982785171933234E-2</v>
       </c>
-      <c r="AJ20" s="9">
-        <f>+AJ5/AI5-1</f>
-        <v>-0.15887029785214191</v>
+      <c r="AJ20" s="8">
+        <f t="shared" si="16"/>
+        <v>-0.10416057629887121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="4">
+        <f>133.068+212.396+259.925</f>
+        <v>605.38900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="4">
+        <v>20.963999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="4">
-        <v>73.16</v>
-      </c>
-      <c r="L25" s="4">
-        <f>135.907-K25</f>
-        <v>62.747000000000014</v>
-      </c>
-      <c r="M25" s="4">
-        <f>168.714-L25-K25</f>
-        <v>32.806999999999988</v>
-      </c>
-      <c r="N25" s="4">
-        <f>+AI25-M25-L25-K25</f>
-        <v>77.484000000000009</v>
-      </c>
-      <c r="O25" s="4">
-        <v>53.317999999999998</v>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P25" s="4">
-        <f>67.545-O25</f>
-        <v>14.227000000000004</v>
-      </c>
-      <c r="W25" s="2">
-        <v>32.753999999999998</v>
-      </c>
-      <c r="X25" s="2">
-        <v>54.680999999999997</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>63.706000000000003</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>68.474999999999994</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>24.937999999999999</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>51.55</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>75.113</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>113.40300000000001</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>236.44200000000001</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>273.22399999999999</v>
-      </c>
-      <c r="AH25" s="2">
-        <v>255.73599999999999</v>
-      </c>
-      <c r="AI25" s="2">
-        <v>246.19800000000001</v>
+        <v>30.841000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="4">
+        <v>36.279000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="4">
+        <v>179.27799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="4">
+        <f>189.769+12.848</f>
+        <v>202.61700000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="4">
+        <v>21.507999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="4">
+        <v>2.2869999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="4">
+        <v>15.167</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="4">
+        <f>SUM(P23:P31)</f>
+        <v>1114.3300000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P34" s="4">
+        <f>357.838+243.079</f>
+        <v>600.91700000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="P37" s="4"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="4">
+        <v>73.16</v>
+      </c>
+      <c r="L39" s="4">
+        <f>135.907-K39</f>
+        <v>62.747000000000014</v>
+      </c>
+      <c r="M39" s="4">
+        <f>168.714-L39-K39</f>
+        <v>32.806999999999988</v>
+      </c>
+      <c r="N39" s="4">
+        <f>+AI39-M39-L39-K39</f>
+        <v>77.484000000000009</v>
+      </c>
+      <c r="O39" s="4">
+        <v>53.317999999999998</v>
+      </c>
+      <c r="P39" s="4">
+        <f>67.545-O39</f>
+        <v>14.227000000000004</v>
+      </c>
+      <c r="W39" s="2">
+        <v>32.753999999999998</v>
+      </c>
+      <c r="X39" s="2">
+        <v>54.680999999999997</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>63.706000000000003</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>68.474999999999994</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>24.937999999999999</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>51.55</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>75.113</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>113.40300000000001</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>236.44200000000001</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>273.22399999999999</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>255.73599999999999</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>246.19800000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K40" s="4">
         <v>17.166</v>
       </c>
-      <c r="L26" s="4">
-        <f>33.864-K26</f>
+      <c r="L40" s="4">
+        <f>33.864-K40</f>
         <v>16.697999999999997</v>
       </c>
-      <c r="M26" s="4">
-        <f>57.298-L26-K26</f>
+      <c r="M40" s="4">
+        <f>57.298-L40-K40</f>
         <v>23.434000000000008</v>
       </c>
-      <c r="N26" s="4">
-        <f>+AI26-M26-L26-K26</f>
+      <c r="N40" s="4">
+        <f>+AI40-M40-L40-K40</f>
         <v>25.754000000000001</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O40" s="4">
         <v>28.016999999999999</v>
       </c>
-      <c r="P26" s="4">
-        <f>45.817-O26</f>
+      <c r="P40" s="4">
+        <f>45.817-O40</f>
         <v>17.8</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W40" s="2">
         <v>-2.7069999999999999</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X40" s="2">
         <v>15.148</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y40" s="2">
         <v>7.3689999999999998</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z40" s="2">
         <v>5.0830000000000002</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA40" s="2">
         <v>8.2530000000000001</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AB40" s="2">
         <v>24.689</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AC40" s="2">
         <v>31.222999999999999</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD40" s="2">
         <v>31.222999999999999</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE40" s="2">
         <v>42.326000000000001</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF40" s="2">
         <v>81.316999999999993</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AG40" s="2">
         <v>94.18</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AH40" s="2">
         <v>103.092</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI40" s="2">
         <v>83.052000000000007</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="4">
-        <f>+K25-K26</f>
+      <c r="K41" s="4">
+        <f t="shared" ref="K41:P41" si="17">+K39-K40</f>
         <v>55.994</v>
       </c>
-      <c r="L27" s="4">
-        <f>+L25-L26</f>
+      <c r="L41" s="4">
+        <f t="shared" si="17"/>
         <v>46.049000000000021</v>
       </c>
-      <c r="M27" s="4">
-        <f>+M25-M26</f>
+      <c r="M41" s="4">
+        <f t="shared" si="17"/>
         <v>9.3729999999999798</v>
       </c>
-      <c r="N27" s="4">
-        <f>+N25-N26</f>
+      <c r="N41" s="4">
+        <f t="shared" si="17"/>
         <v>51.730000000000004</v>
       </c>
-      <c r="O27" s="4">
-        <f>+O25-O26</f>
+      <c r="O41" s="4">
+        <f t="shared" si="17"/>
         <v>25.300999999999998</v>
       </c>
-      <c r="P27" s="4">
-        <f>+P25-P26</f>
+      <c r="P41" s="4">
+        <f t="shared" si="17"/>
         <v>-3.5729999999999968</v>
       </c>
-      <c r="W27" s="2">
-        <f t="shared" ref="W27:AF27" si="5">+W25-W26</f>
+      <c r="W41" s="2">
+        <f t="shared" ref="W41:AF41" si="18">+W39-W40</f>
         <v>35.460999999999999</v>
       </c>
-      <c r="X27" s="2">
-        <f t="shared" si="5"/>
+      <c r="X41" s="2">
+        <f t="shared" si="18"/>
         <v>39.533000000000001</v>
       </c>
-      <c r="Y27" s="2">
-        <f t="shared" si="5"/>
+      <c r="Y41" s="2">
+        <f t="shared" si="18"/>
         <v>56.337000000000003</v>
       </c>
-      <c r="Z27" s="2">
-        <f t="shared" si="5"/>
+      <c r="Z41" s="2">
+        <f t="shared" si="18"/>
         <v>63.391999999999996</v>
       </c>
-      <c r="AA27" s="2">
-        <f t="shared" si="5"/>
+      <c r="AA41" s="2">
+        <f t="shared" si="18"/>
         <v>-8.3350000000000009</v>
       </c>
-      <c r="AB27" s="2">
-        <f t="shared" si="5"/>
+      <c r="AB41" s="2">
+        <f t="shared" si="18"/>
         <v>0.24899999999999878</v>
       </c>
-      <c r="AC27" s="2">
-        <f t="shared" si="5"/>
+      <c r="AC41" s="2">
+        <f t="shared" si="18"/>
         <v>20.326999999999998</v>
       </c>
-      <c r="AD27" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD41" s="2">
+        <f t="shared" si="18"/>
         <v>43.89</v>
       </c>
-      <c r="AE27" s="2">
-        <f t="shared" si="5"/>
+      <c r="AE41" s="2">
+        <f t="shared" si="18"/>
         <v>71.076999999999998</v>
       </c>
-      <c r="AF27" s="2">
-        <f t="shared" si="5"/>
+      <c r="AF41" s="2">
+        <f t="shared" si="18"/>
         <v>155.125</v>
       </c>
-      <c r="AG27" s="2">
-        <f>+AG25-AG26</f>
+      <c r="AG41" s="2">
+        <f>+AG39-AG40</f>
         <v>179.04399999999998</v>
       </c>
-      <c r="AH27" s="2">
-        <f>+AH25-AH26</f>
+      <c r="AH41" s="2">
+        <f>+AH39-AH40</f>
         <v>152.64400000000001</v>
       </c>
-      <c r="AI27" s="2">
-        <f>+AI25-AI26</f>
+      <c r="AI41" s="2">
+        <f>+AI39-AI40</f>
         <v>163.14600000000002</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0198F5E0-AA8D-4BAD-BEC7-554886402B0C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/CHGG.xlsx
+++ b/CHGG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BEEE2E-C958-4EC7-8875-4409A299D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1142B20-8B1A-42E1-8F0D-3EE880E564C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27945" yWindow="1260" windowWidth="27480" windowHeight="18705" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
+    <workbookView xWindow="-24630" yWindow="1245" windowWidth="22650" windowHeight="17670" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>Price</t>
   </si>
@@ -190,6 +190,123 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Debt Issuance</t>
+  </si>
+  <si>
+    <t>Writeoff</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>ESOP Taxes</t>
+  </si>
+  <si>
+    <t>ESOP Issuance</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Busuu - language learning</t>
+  </si>
+  <si>
+    <t>Chegg Study</t>
+  </si>
+  <si>
+    <t>Chegg Study Pack (Study, Writing, Math)</t>
+  </si>
+  <si>
+    <t>Chegg Skills - corporate</t>
+  </si>
+  <si>
+    <t>Course Hero, Quizlet, Khan Academy, and Brainly</t>
+  </si>
+  <si>
+    <t>Grammarly</t>
+  </si>
+  <si>
+    <t>Photomath, Gauthmath, and Symbolab</t>
+  </si>
+  <si>
+    <t>Duolingo and Babbel</t>
+  </si>
+  <si>
+    <t>General Assembly, Galvanize, Inc., Flatiron School, Codecademy, DataCamp, and Lambda, Inc.</t>
+  </si>
+  <si>
+    <t>2U, Inc., Simplilearn, and Kenzie Academy.</t>
+  </si>
+  <si>
+    <t>EasyBib</t>
+  </si>
+  <si>
+    <t>Chegg Math - Mathway</t>
+  </si>
+  <si>
+    <t>Chegg Writing - EasyBib, Citation Machine, CiteThisForMe</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Founded: 2005</t>
   </si>
 </sst>
 </file>
@@ -239,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +375,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -290,7 +410,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>8659</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>129886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -340,8 +460,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>25977</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>90920</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85396</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -356,8 +476,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10113818" y="0"/>
-          <a:ext cx="0" cy="4416136"/>
+          <a:off x="10122477" y="0"/>
+          <a:ext cx="0" cy="15194017"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -700,13 +820,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853FF35D-C759-48E7-97C1-902D05ECE912}">
-  <dimension ref="J2:L7"/>
+  <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -714,7 +839,10 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -725,7 +853,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -734,7 +865,10 @@
         <v>176.2387943</v>
       </c>
     </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -746,7 +880,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -758,13 +895,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
         <v>171.76679430000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -774,13 +948,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCFFC2-AFE9-4B81-83F2-83199EB3420A}">
-  <dimension ref="A1:AT41"/>
+  <dimension ref="A1:AT75"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2402,11 +2576,26 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="L17" s="10">
+        <f>+L16/L18</f>
+        <v>-0.14901010951979782</v>
+      </c>
+      <c r="M17" s="10">
+        <f>+M16/M18</f>
+        <v>-0.50779415460067401</v>
+      </c>
+      <c r="N17" s="10">
+        <f>+N16/N18</f>
+        <v>8.1285428335940352E-2</v>
+      </c>
+      <c r="O17" s="10">
+        <f>+O16/O18</f>
+        <v>-1.3874910839041245E-2</v>
+      </c>
+      <c r="P17" s="10">
+        <f>+P16/P18</f>
+        <v>2.9160656504619711E-2</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2666,319 +2855,710 @@
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" ref="K23:N23" si="17">+K24-K38</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <f>+O24-O38</f>
+        <v>12.047999999999888</v>
+      </c>
+      <c r="P23" s="4">
+        <f>+P24-P38</f>
+        <v>4.47199999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="4">
+      <c r="O24" s="4">
+        <f>143.747+247.013+221.665</f>
+        <v>612.42499999999995</v>
+      </c>
+      <c r="P24" s="4">
         <f>133.068+212.396+259.925</f>
         <v>605.38900000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="4">
+      <c r="O25" s="4">
+        <v>24.741</v>
+      </c>
+      <c r="P25" s="4">
         <v>20.963999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="4">
+      <c r="O26" s="4">
+        <v>20.428999999999998</v>
+      </c>
+      <c r="P26" s="4">
         <v>30.841000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="4">
+      <c r="O27" s="4">
+        <v>30.01</v>
+      </c>
+      <c r="P27" s="4">
         <v>36.279000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P27" s="4">
+      <c r="O28" s="4">
+        <v>188.43</v>
+      </c>
+      <c r="P28" s="4">
         <v>179.27799999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="4">
+      <c r="O29" s="4">
+        <f>628.784+48.143</f>
+        <v>676.92700000000002</v>
+      </c>
+      <c r="P29" s="4">
         <f>189.769+12.848</f>
         <v>202.61700000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="4">
+      <c r="O30" s="4">
+        <v>23.521000000000001</v>
+      </c>
+      <c r="P30" s="4">
         <v>21.507999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="P30" s="4">
+      <c r="O31" s="4">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="P31" s="4">
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P31" s="4">
+      <c r="O32" s="4">
+        <v>15.961</v>
+      </c>
+      <c r="P32" s="4">
         <v>15.167</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="4">
-        <f>SUM(P23:P31)</f>
+      <c r="O33" s="4">
+        <f>SUM(O24:O32)</f>
+        <v>1732.644</v>
+      </c>
+      <c r="P33" s="4">
+        <f>SUM(P24:P32)</f>
         <v>1114.3300000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="4">
+        <v>20.119</v>
+      </c>
+      <c r="P35" s="4">
+        <v>14.423999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="4">
+        <v>54.055999999999997</v>
+      </c>
+      <c r="P36" s="4">
+        <v>45.023000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="4">
+        <v>73.555000000000007</v>
+      </c>
+      <c r="P37" s="4">
+        <v>68.001000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="P34" s="4">
+      <c r="O38" s="4">
+        <f>357.458+242.919</f>
+        <v>600.37700000000007</v>
+      </c>
+      <c r="P38" s="4">
         <f>357.838+243.079</f>
         <v>600.91700000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="P37" s="4"/>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="4">
+        <v>16.46</v>
+      </c>
+      <c r="P39" s="4">
+        <v>15.595000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="O40" s="4">
+        <v>4.6029999999999998</v>
+      </c>
+      <c r="P40" s="4">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" s="4">
+        <v>963.47400000000005</v>
+      </c>
+      <c r="P41" s="4">
+        <v>365.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="O42" s="4">
+        <f>SUM(O35:O41)</f>
+        <v>1732.6440000000002</v>
+      </c>
+      <c r="P42" s="4">
+        <f>SUM(P35:P41)</f>
+        <v>1114.33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="O44" s="4">
+        <f>+O16</f>
+        <v>-1.4199999999999982</v>
+      </c>
+      <c r="P44" s="4">
+        <f>+P16</f>
+        <v>2.9920000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="4">
+        <v>-1.42</v>
+      </c>
+      <c r="P45" s="4">
+        <f>-618.304-O45</f>
+        <v>-616.88400000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="O46" s="4">
+        <v>29.289000000000001</v>
+      </c>
+      <c r="P46" s="4">
+        <f>47.336-O46</f>
+        <v>18.046999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="O47" s="4">
+        <v>19.687000000000001</v>
+      </c>
+      <c r="P47" s="4">
+        <f>39.393-O47</f>
+        <v>19.706</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="O48" s="4">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="P48" s="4">
+        <f>141.032-O48</f>
+        <v>138.155</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="O49" s="4">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="P49" s="4">
+        <f>3.141-O49</f>
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="P50" s="4">
+        <f>1.081-O50</f>
+        <v>0.53999999999999992</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4">
+        <f>481.531-O51+1.657</f>
+        <v>483.18799999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="P52" s="4">
+        <f>2.189-O52</f>
+        <v>1.7110000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53" s="4">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="P53" s="4">
+        <f>0.082-O53</f>
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="O54" s="4">
+        <f>6.705+3.583-1.27-6.589-1.159+0.64-1.58</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="P54" s="4">
+        <f>10.561-12.173-0.773-12.045-10.226-4.057-2.88-O54</f>
+        <v>-31.923000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="4">
+      <c r="O55" s="4">
+        <f>SUM(O45:O54)</f>
+        <v>53.317999999999998</v>
+      </c>
+      <c r="P55" s="4">
+        <f>SUM(P45:P54)</f>
+        <v>14.227000000000018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="4">
         <v>73.16</v>
       </c>
-      <c r="L39" s="4">
-        <f>135.907-K39</f>
+      <c r="L57" s="4">
+        <f>135.907-K57</f>
         <v>62.747000000000014</v>
       </c>
-      <c r="M39" s="4">
-        <f>168.714-L39-K39</f>
+      <c r="M57" s="4">
+        <f>168.714-L57-K57</f>
         <v>32.806999999999988</v>
       </c>
-      <c r="N39" s="4">
-        <f>+AI39-M39-L39-K39</f>
+      <c r="N57" s="4">
+        <f>+AI57-M57-L57-K57</f>
         <v>77.484000000000009</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O57" s="4">
         <v>53.317999999999998</v>
       </c>
-      <c r="P39" s="4">
-        <f>67.545-O39</f>
+      <c r="P57" s="4">
+        <f>67.545-O57</f>
         <v>14.227000000000004</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W57" s="2">
         <v>32.753999999999998</v>
       </c>
-      <c r="X39" s="2">
+      <c r="X57" s="2">
         <v>54.680999999999997</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="Y57" s="2">
         <v>63.706000000000003</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="Z57" s="2">
         <v>68.474999999999994</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AA57" s="2">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="AB39" s="2">
+      <c r="AB57" s="2">
         <v>24.937999999999999</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AC57" s="2">
         <v>51.55</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AD57" s="2">
         <v>75.113</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AE57" s="2">
         <v>113.40300000000001</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="AF57" s="2">
         <v>236.44200000000001</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AG57" s="2">
         <v>273.22399999999999</v>
       </c>
-      <c r="AH39" s="2">
+      <c r="AH57" s="2">
         <v>255.73599999999999</v>
       </c>
-      <c r="AI39" s="2">
+      <c r="AI57" s="2">
         <v>246.19800000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="58" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K58" s="4">
         <v>17.166</v>
       </c>
-      <c r="L40" s="4">
-        <f>33.864-K40</f>
+      <c r="L58" s="4">
+        <f>33.864-K58</f>
         <v>16.697999999999997</v>
       </c>
-      <c r="M40" s="4">
-        <f>57.298-L40-K40</f>
+      <c r="M58" s="4">
+        <f>57.298-L58-K58</f>
         <v>23.434000000000008</v>
       </c>
-      <c r="N40" s="4">
-        <f>+AI40-M40-L40-K40</f>
+      <c r="N58" s="4">
+        <f>+AI58-M58-L58-K58</f>
         <v>25.754000000000001</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O58" s="4">
         <v>28.016999999999999</v>
       </c>
-      <c r="P40" s="4">
-        <f>45.817-O40</f>
+      <c r="P58" s="4">
+        <f>45.817-O58</f>
         <v>17.8</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W58" s="2">
         <v>-2.7069999999999999</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X58" s="2">
         <v>15.148</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="Y58" s="2">
         <v>7.3689999999999998</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z58" s="2">
         <v>5.0830000000000002</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA58" s="2">
         <v>8.2530000000000001</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AB58" s="2">
         <v>24.689</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AC58" s="2">
         <v>31.222999999999999</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AD58" s="2">
         <v>31.222999999999999</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AE58" s="2">
         <v>42.326000000000001</v>
       </c>
-      <c r="AF40" s="2">
+      <c r="AF58" s="2">
         <v>81.316999999999993</v>
       </c>
-      <c r="AG40" s="2">
+      <c r="AG58" s="2">
         <v>94.18</v>
       </c>
-      <c r="AH40" s="2">
+      <c r="AH58" s="2">
         <v>103.092</v>
       </c>
-      <c r="AI40" s="2">
+      <c r="AI58" s="2">
         <v>83.052000000000007</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>40</v>
       </c>
-      <c r="K41" s="4">
-        <f t="shared" ref="K41:P41" si="17">+K39-K40</f>
+      <c r="K59" s="4">
+        <f t="shared" ref="K59:P59" si="18">+K57-K58</f>
         <v>55.994</v>
       </c>
-      <c r="L41" s="4">
-        <f t="shared" si="17"/>
+      <c r="L59" s="4">
+        <f t="shared" si="18"/>
         <v>46.049000000000021</v>
       </c>
-      <c r="M41" s="4">
-        <f t="shared" si="17"/>
+      <c r="M59" s="4">
+        <f t="shared" si="18"/>
         <v>9.3729999999999798</v>
       </c>
-      <c r="N41" s="4">
-        <f t="shared" si="17"/>
+      <c r="N59" s="4">
+        <f t="shared" si="18"/>
         <v>51.730000000000004</v>
       </c>
-      <c r="O41" s="4">
-        <f t="shared" si="17"/>
+      <c r="O59" s="4">
+        <f t="shared" si="18"/>
         <v>25.300999999999998</v>
       </c>
-      <c r="P41" s="4">
-        <f t="shared" si="17"/>
+      <c r="P59" s="4">
+        <f t="shared" si="18"/>
         <v>-3.5729999999999968</v>
       </c>
-      <c r="W41" s="2">
-        <f t="shared" ref="W41:AF41" si="18">+W39-W40</f>
+      <c r="W59" s="2">
+        <f t="shared" ref="W59:AF59" si="19">+W57-W58</f>
         <v>35.460999999999999</v>
       </c>
-      <c r="X41" s="2">
-        <f t="shared" si="18"/>
+      <c r="X59" s="2">
+        <f t="shared" si="19"/>
         <v>39.533000000000001</v>
       </c>
-      <c r="Y41" s="2">
-        <f t="shared" si="18"/>
+      <c r="Y59" s="2">
+        <f t="shared" si="19"/>
         <v>56.337000000000003</v>
       </c>
-      <c r="Z41" s="2">
-        <f t="shared" si="18"/>
+      <c r="Z59" s="2">
+        <f t="shared" si="19"/>
         <v>63.391999999999996</v>
       </c>
-      <c r="AA41" s="2">
-        <f t="shared" si="18"/>
+      <c r="AA59" s="2">
+        <f t="shared" si="19"/>
         <v>-8.3350000000000009</v>
       </c>
-      <c r="AB41" s="2">
-        <f t="shared" si="18"/>
+      <c r="AB59" s="2">
+        <f t="shared" si="19"/>
         <v>0.24899999999999878</v>
       </c>
-      <c r="AC41" s="2">
-        <f t="shared" si="18"/>
+      <c r="AC59" s="2">
+        <f t="shared" si="19"/>
         <v>20.326999999999998</v>
       </c>
-      <c r="AD41" s="2">
-        <f t="shared" si="18"/>
+      <c r="AD59" s="2">
+        <f t="shared" si="19"/>
         <v>43.89</v>
       </c>
-      <c r="AE41" s="2">
-        <f t="shared" si="18"/>
+      <c r="AE59" s="2">
+        <f t="shared" si="19"/>
         <v>71.076999999999998</v>
       </c>
-      <c r="AF41" s="2">
-        <f t="shared" si="18"/>
+      <c r="AF59" s="2">
+        <f t="shared" si="19"/>
         <v>155.125</v>
       </c>
-      <c r="AG41" s="2">
-        <f>+AG39-AG40</f>
+      <c r="AG59" s="2">
+        <f>+AG57-AG58</f>
         <v>179.04399999999998</v>
       </c>
-      <c r="AH41" s="2">
-        <f>+AH39-AH40</f>
+      <c r="AH59" s="2">
+        <f>+AH57-AH58</f>
         <v>152.64400000000001</v>
       </c>
-      <c r="AI41" s="2">
-        <f>+AI39-AI40</f>
+      <c r="AI59" s="2">
+        <f>+AI57-AI58</f>
         <v>163.14600000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="O62" s="4">
+        <v>-28.016999999999999</v>
+      </c>
+      <c r="P62" s="4">
+        <f>-45.817-O62</f>
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="O63" s="4">
+        <f>-79.028+50.731+15.5</f>
+        <v>-12.797000000000004</v>
+      </c>
+      <c r="P63" s="4">
+        <f>-123.669+89.89-O63+15.5</f>
+        <v>-5.4819999999999922</v>
+      </c>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="O64" s="4">
+        <f>O62+O63</f>
+        <v>-40.814000000000007</v>
+      </c>
+      <c r="P64" s="4">
+        <f>P62+P63</f>
+        <v>-23.281999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="4"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O67" s="4">
+        <v>-4.2939999999999996</v>
+      </c>
+      <c r="P67" s="4">
+        <f>-7.825-O67</f>
+        <v>-3.5310000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="O68" s="4">
+        <f>+O66+O67</f>
+        <v>-4.2939999999999996</v>
+      </c>
+      <c r="P68" s="4">
+        <f>+P66+P67</f>
+        <v>-1.3410000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="O69" s="4">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="P69" s="4">
+        <v>-0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="O70" s="4">
+        <f>+O68+O69+O64+O55</f>
+        <v>7.9839999999999947</v>
+      </c>
+      <c r="P70" s="4">
+        <f>+P68+P69+P64+P55</f>
+        <v>-10.700999999999976</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1979</v>
       </c>
     </row>
   </sheetData>

--- a/CHGG.xlsx
+++ b/CHGG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1142B20-8B1A-42E1-8F0D-3EE880E564C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF9CD7E-812F-4E94-B2A8-2A66E5A8AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24630" yWindow="1245" windowWidth="22650" windowHeight="17670" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
+    <workbookView xWindow="-27930" yWindow="4230" windowWidth="26220" windowHeight="14910" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D48E61D8-28FC-4407-A089-C75FAB3BC964}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{D48E61D8-28FC-4407-A089-C75FAB3BC964}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q2 guidance: 133-135m</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Price</t>
   </si>
@@ -307,6 +325,18 @@
   </si>
   <si>
     <t>Founded: 2005</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -402,13 +432,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>8659</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>8659</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>129886</xdr:rowOff>
@@ -452,14 +482,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25977</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32546</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25977</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32546</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>85396</xdr:rowOff>
     </xdr:to>
@@ -476,8 +506,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10122477" y="0"/>
-          <a:ext cx="0" cy="15194017"/>
+          <a:off x="10739960" y="0"/>
+          <a:ext cx="0" cy="15029793"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -501,6 +531,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{B93B85B5-F728-48CD-935D-41A7F3159B4C}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,12 +854,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q5" dT="2024-11-12T18:27:23.97" personId="{B93B85B5-F728-48CD-935D-41A7F3159B4C}" id="{D48E61D8-28FC-4407-A089-C75FAB3BC964}">
+    <text>Q2 guidance: 133-135m</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853FF35D-C759-48E7-97C1-902D05ECE912}">
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -836,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -862,7 +906,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K3*K2</f>
-        <v>176.2387943</v>
+        <v>155.5048185</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -904,7 +948,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>171.76679430000002</v>
+        <v>151.03281850000002</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -947,29 +991,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCFFC2-AFE9-4B81-83F2-83199EB3420A}">
-  <dimension ref="A1:AT75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCFFC2-AFE9-4B81-83F2-83199EB3420A}">
+  <dimension ref="A1:AY75"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P75" sqref="P75"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="3"/>
+    <col min="3" max="32" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1018,102 +1062,117 @@
       <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3">
+      <c r="S2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" s="3">
         <v>2008</v>
       </c>
-      <c r="U2" s="3">
+      <c r="Y2" s="3">
         <v>2009</v>
       </c>
-      <c r="V2" s="3">
+      <c r="Z2" s="3">
         <v>2010</v>
       </c>
-      <c r="W2" s="3">
+      <c r="AA2" s="3">
         <v>2011</v>
       </c>
-      <c r="X2" s="3">
+      <c r="AB2" s="3">
         <v>2012</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="AC2" s="3">
         <v>2013</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AD2" s="3">
         <v>2014</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <v>2015</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <v>2016</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>2017</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>2018</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <v>2019</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <v>2020</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <v>2021</v>
       </c>
-      <c r="AH2">
-        <f>+AG2+1</f>
+      <c r="AL2">
+        <f>+AK2+1</f>
         <v>2022</v>
       </c>
-      <c r="AI2">
-        <f t="shared" ref="AI2:AT2" si="0">+AH2+1</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AX2" si="0">+AL2+1</f>
         <v>2023</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AT2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY2">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1161,12 +1220,16 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AE4"/>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1213,70 +1276,129 @@
         <v>163.14699999999999</v>
       </c>
       <c r="Q5" s="6">
-        <v>135</v>
+        <v>136.6</v>
       </c>
       <c r="R5" s="6">
-        <f>+N5*0.9</f>
-        <v>169.1883</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="5">
+        <v>142</v>
+      </c>
+      <c r="S5" s="6">
+        <f>+O5*0.9</f>
+        <v>156.91499999999999</v>
+      </c>
+      <c r="T5" s="6">
+        <f>+P5*0.9</f>
+        <v>146.8323</v>
+      </c>
+      <c r="U5" s="6">
+        <f>+Q5*0.9</f>
+        <v>122.94</v>
+      </c>
+      <c r="V5" s="6">
+        <f>+R5*0.9</f>
+        <v>127.8</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="5">
         <v>7.6059999999999999</v>
       </c>
-      <c r="U5" s="5">
+      <c r="Y5" s="5">
         <v>47.834000000000003</v>
       </c>
-      <c r="V5" s="5">
+      <c r="Z5" s="5">
         <v>148.922</v>
       </c>
-      <c r="W5" s="5">
+      <c r="AA5" s="5">
         <v>172.018</v>
       </c>
-      <c r="X5" s="5">
+      <c r="AB5" s="5">
         <v>213.334</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="AC5" s="5">
         <v>255.57499999999999</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AD5" s="5">
         <v>304.834</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AE5" s="5">
         <v>301.37299999999999</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AF5" s="5">
         <v>254.09</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AG5" s="5">
         <v>255.066</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AH5" s="5">
         <v>321.084</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AI5" s="5">
         <v>410.92599999999999</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AJ5" s="5">
         <v>644.33799999999997</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AK5" s="5">
         <f>SUM(C5:F5)</f>
         <v>776.26499999999999</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AL5" s="5">
         <f>SUM(G5:J5)</f>
         <v>766.89700000000005</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AM5" s="5">
         <f>SUM(K5:N5)</f>
         <v>716.29499999999996</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AN5" s="5">
         <f>SUM(O5:R5)</f>
-        <v>641.68529999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>616.09699999999998</v>
+      </c>
+      <c r="AO5" s="5">
+        <f t="shared" ref="AO5:AY5" si="1">+AN5*0.9</f>
+        <v>554.4873</v>
+      </c>
+      <c r="AP5" s="5">
+        <f t="shared" si="1"/>
+        <v>499.03856999999999</v>
+      </c>
+      <c r="AQ5" s="5">
+        <f t="shared" si="1"/>
+        <v>449.13471299999998</v>
+      </c>
+      <c r="AR5" s="5">
+        <f t="shared" si="1"/>
+        <v>404.22124170000001</v>
+      </c>
+      <c r="AS5" s="5">
+        <f t="shared" si="1"/>
+        <v>363.79911752999999</v>
+      </c>
+      <c r="AT5" s="5">
+        <f t="shared" si="1"/>
+        <v>327.419205777</v>
+      </c>
+      <c r="AU5" s="5">
+        <f t="shared" si="1"/>
+        <v>294.6772851993</v>
+      </c>
+      <c r="AV5" s="5">
+        <f t="shared" si="1"/>
+        <v>265.20955667937</v>
+      </c>
+      <c r="AW5" s="5">
+        <f t="shared" si="1"/>
+        <v>238.68860101143301</v>
+      </c>
+      <c r="AX5" s="5">
+        <f t="shared" si="1"/>
+        <v>214.81974091028971</v>
+      </c>
+      <c r="AY5" s="5">
+        <f t="shared" si="1"/>
+        <v>193.33776681926074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1322,198 +1444,211 @@
       <c r="P6" s="4">
         <v>45.411000000000001</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="4">
+        <v>43.42</v>
+      </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="2">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="2">
         <v>5.4329999999999998</v>
       </c>
-      <c r="U6" s="2">
+      <c r="Y6" s="2">
         <v>39.021999999999998</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Z6" s="2">
         <v>114.215</v>
       </c>
-      <c r="W6" s="2">
+      <c r="AA6" s="2">
         <v>127.012</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AB6" s="2">
         <v>145.66900000000001</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AC6" s="2">
         <v>175.06</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AD6" s="2">
         <v>210.98500000000001</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AE6" s="2">
         <v>189.84899999999999</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AF6" s="2">
         <v>119.601</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AG6" s="2">
         <v>80.174999999999997</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AH6" s="2">
         <v>79.995999999999995</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AI6" s="2">
         <v>92.182000000000002</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AJ6" s="2">
         <v>205.417</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AK6" s="2">
         <f>SUM(C6:F6)</f>
         <v>254.904</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AL6" s="2">
         <f>SUM(G6:J6)</f>
         <v>197.39600000000002</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AM6" s="2">
         <f>SUM(K6:N6)</f>
         <v>225.941</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AN6" s="2">
         <f>SUM(O6:R6)</f>
-        <v>91.908000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>135.328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:P7" si="1">+C5-C6</f>
+        <f t="shared" ref="C7:P7" si="2">+C5-C6</f>
         <v>126.99399999999999</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137.77000000000001</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104.84</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151.75700000000001</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147.15899999999999</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>149.03700000000001</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.536</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153.76900000000001</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138.45099999999999</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135.441</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.279000000000011</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142.18299999999999</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127.85299999999999</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117.73599999999999</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4">
+        <f>+Q5-Q6</f>
+        <v>93.179999999999993</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="2">
-        <f t="shared" ref="T7:AJ7" si="2">+T5-T6</f>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="2">
+        <f t="shared" ref="X7:AN7" si="3">+X5-X6</f>
         <v>2.173</v>
       </c>
-      <c r="U7" s="2">
-        <f t="shared" si="2"/>
+      <c r="Y7" s="2">
+        <f t="shared" si="3"/>
         <v>8.8120000000000047</v>
       </c>
-      <c r="V7" s="2">
-        <f t="shared" si="2"/>
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
         <v>34.706999999999994</v>
       </c>
-      <c r="W7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AA7" s="2">
+        <f t="shared" si="3"/>
         <v>45.006</v>
       </c>
-      <c r="X7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AB7" s="2">
+        <f t="shared" si="3"/>
         <v>67.664999999999992</v>
       </c>
-      <c r="Y7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AC7" s="2">
+        <f t="shared" si="3"/>
         <v>80.514999999999986</v>
       </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AD7" s="2">
+        <f t="shared" si="3"/>
         <v>93.84899999999999</v>
       </c>
-      <c r="AA7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AE7" s="2">
+        <f t="shared" si="3"/>
         <v>111.524</v>
       </c>
-      <c r="AB7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AF7" s="2">
+        <f t="shared" si="3"/>
         <v>134.489</v>
       </c>
-      <c r="AC7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AG7" s="2">
+        <f t="shared" si="3"/>
         <v>174.89100000000002</v>
       </c>
-      <c r="AD7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AH7" s="2">
+        <f t="shared" si="3"/>
         <v>241.08800000000002</v>
       </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AI7" s="2">
+        <f t="shared" si="3"/>
         <v>318.74399999999997</v>
       </c>
-      <c r="AF7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AJ7" s="2">
+        <f t="shared" si="3"/>
         <v>438.92099999999994</v>
       </c>
-      <c r="AG7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AK7" s="2">
+        <f t="shared" si="3"/>
         <v>521.36099999999999</v>
       </c>
-      <c r="AH7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AL7" s="2">
+        <f t="shared" si="3"/>
         <v>569.50099999999998</v>
       </c>
-      <c r="AI7" s="2">
-        <f t="shared" si="2"/>
+      <c r="AM7" s="2">
+        <f t="shared" si="3"/>
         <v>490.35399999999993</v>
       </c>
-      <c r="AJ7" s="2">
-        <f t="shared" si="2"/>
-        <v>549.77729999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN7" s="2">
+        <f t="shared" si="3"/>
+        <v>480.76900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1559,66 +1694,72 @@
       <c r="P8" s="4">
         <v>43.651000000000003</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="4">
+        <v>41.337000000000003</v>
+      </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="2">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="2">
         <v>1.3939999999999999</v>
       </c>
-      <c r="U8" s="2">
+      <c r="Y8" s="2">
         <v>7.85</v>
       </c>
-      <c r="V8" s="2">
+      <c r="Z8" s="2">
         <v>18.885000000000002</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AA8" s="2">
         <v>29.591000000000001</v>
       </c>
-      <c r="X8" s="2">
+      <c r="AB8" s="2">
         <v>39.314999999999998</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AC8" s="2">
         <v>41.944000000000003</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AD8" s="2">
         <v>49.386000000000003</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AE8" s="2">
         <v>59.390999999999998</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AF8" s="2">
         <v>66.331000000000003</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AG8" s="2">
         <v>81.926000000000002</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AH8" s="2">
         <v>114.291</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AI8" s="2">
         <v>139.77199999999999</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AJ8" s="2">
         <v>170.905</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AK8" s="2">
         <f>SUM(C8:F8)</f>
         <v>178.821</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AL8" s="2">
         <f>SUM(G8:J8)</f>
         <v>196.637</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AM8" s="2">
         <f>SUM(K8:N8)</f>
         <v>191.70499999999998</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AN8" s="2">
         <f>SUM(O8:R8)</f>
-        <v>88.086000000000013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129.423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1664,66 +1805,72 @@
       <c r="P9" s="4">
         <v>23.545000000000002</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="4">
+        <v>26.507999999999999</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="2">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="2">
         <v>1.6279999999999999</v>
       </c>
-      <c r="U9" s="2">
+      <c r="Y9" s="2">
         <v>8.5120000000000005</v>
       </c>
-      <c r="V9" s="2">
+      <c r="Z9" s="2">
         <v>24.422000000000001</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AA9" s="2">
         <v>28.4</v>
       </c>
-      <c r="X9" s="2">
+      <c r="AB9" s="2">
         <v>51.082000000000001</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AC9" s="2">
         <v>50.302</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AD9" s="2">
         <v>72.314999999999998</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AE9" s="2">
         <v>64.081999999999994</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AF9" s="2">
         <v>53.948999999999998</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AG9" s="2">
         <v>51.24</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AH9" s="2">
         <v>54.713999999999999</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AI9" s="2">
         <v>63.569000000000003</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AJ9" s="2">
         <v>81.914000000000001</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AK9" s="2">
         <f>SUM(C9:F9)</f>
         <v>105.41399999999999</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AL9" s="2">
         <f>SUM(G9:J9)</f>
         <v>147.66</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AM9" s="2">
         <f>SUM(K9:N9)</f>
         <v>126.59099999999999</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AN9" s="2">
         <f>SUM(O9:R9)</f>
-        <v>53.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>80.427999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1769,327 +1916,353 @@
       <c r="P10" s="4">
         <v>54.015999999999998</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4">
+        <v>51.91</v>
+      </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="2">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="2">
         <v>1.9770000000000001</v>
       </c>
-      <c r="U10" s="2">
+      <c r="Y10" s="2">
         <v>7.5910000000000002</v>
       </c>
-      <c r="V10" s="2">
+      <c r="Z10" s="2">
         <v>15.362</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AA10" s="2">
         <v>20.327999999999999</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AB10" s="2">
         <v>25.117000000000001</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AC10" s="2">
         <v>40.485999999999997</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AD10" s="2">
         <v>41.837000000000003</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AE10" s="2">
         <v>45.209000000000003</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AF10" s="2">
         <v>55.372</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AG10" s="2">
         <v>64.411000000000001</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AH10" s="2">
         <v>77.713999999999999</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AI10" s="2">
         <v>97.585999999999999</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AJ10" s="2">
         <v>129.34899999999999</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AK10" s="2">
         <f>SUM(C10:F10)</f>
         <v>159.01900000000001</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AL10" s="2">
         <f>SUM(G10:J10)</f>
         <v>216.24700000000001</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AM10" s="2">
         <f>SUM(K10:N10)</f>
         <v>239.78299999999996</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AN10" s="2">
         <f>SUM(O10:R10)</f>
-        <v>109.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161.45999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ref="C11:P11" si="3">SUM(C8:C10)</f>
+        <f t="shared" ref="C11:P11" si="4">SUM(C8:C10)</f>
         <v>110.215</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104.47899999999998</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125.56</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141.78299999999999</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141.69400000000002</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130.971</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>146.096</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>142.89699999999999</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154.137</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132.149</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128.89600000000002</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130.34399999999999</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121.21199999999999</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="Q11" s="4">
+        <f t="shared" ref="Q11:R11" si="5">SUM(Q8:Q10)</f>
+        <v>119.755</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="2">
-        <f t="shared" ref="T11:AG11" si="4">+T10+T9+T8</f>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="2">
+        <f t="shared" ref="X11:AK11" si="6">+X10+X9+X8</f>
         <v>4.9989999999999997</v>
       </c>
-      <c r="U11" s="2">
-        <f t="shared" si="4"/>
+      <c r="Y11" s="2">
+        <f t="shared" si="6"/>
         <v>23.953000000000003</v>
       </c>
-      <c r="V11" s="2">
-        <f t="shared" si="4"/>
+      <c r="Z11" s="2">
+        <f t="shared" si="6"/>
         <v>58.668999999999997</v>
       </c>
-      <c r="W11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA11" s="2">
+        <f t="shared" si="6"/>
         <v>78.318999999999988</v>
       </c>
-      <c r="X11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AB11" s="2">
+        <f t="shared" si="6"/>
         <v>115.514</v>
       </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AC11" s="2">
+        <f t="shared" si="6"/>
         <v>132.732</v>
       </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AD11" s="2">
+        <f t="shared" si="6"/>
         <v>163.53800000000001</v>
       </c>
-      <c r="AA11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AE11" s="2">
+        <f t="shared" si="6"/>
         <v>168.68199999999999</v>
       </c>
-      <c r="AB11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AF11" s="2">
+        <f t="shared" si="6"/>
         <v>175.65199999999999</v>
       </c>
-      <c r="AC11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AG11" s="2">
+        <f t="shared" si="6"/>
         <v>197.577</v>
       </c>
-      <c r="AD11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AH11" s="2">
+        <f t="shared" si="6"/>
         <v>246.71899999999999</v>
       </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AI11" s="2">
+        <f t="shared" si="6"/>
         <v>300.92700000000002</v>
       </c>
-      <c r="AF11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AJ11" s="2">
+        <f t="shared" si="6"/>
         <v>382.16800000000001</v>
       </c>
-      <c r="AG11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AK11" s="2">
+        <f t="shared" si="6"/>
         <v>443.25400000000002</v>
       </c>
-      <c r="AH11" s="2">
-        <f t="shared" ref="AH11:AJ11" si="5">+AH10+AH9+AH8</f>
+      <c r="AL11" s="2">
+        <f t="shared" ref="AL11:AN11" si="7">+AL10+AL9+AL8</f>
         <v>560.5440000000001</v>
       </c>
-      <c r="AI11" s="2">
-        <f t="shared" si="5"/>
+      <c r="AM11" s="2">
+        <f t="shared" si="7"/>
         <v>558.07899999999995</v>
       </c>
-      <c r="AJ11" s="2">
-        <f t="shared" si="5"/>
-        <v>251.55600000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN11" s="2">
+        <f t="shared" si="7"/>
+        <v>371.31099999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:P12" si="6">C7-C11</f>
+        <f t="shared" ref="C12:P12" si="8">C7-C11</f>
         <v>16.778999999999982</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34.77000000000001</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36100000000001842</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26.197000000000003</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.3760000000000048</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3429999999999893</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-11.435000000000002</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6730000000000018</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.445999999999998</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-18.695999999999998</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-57.86999999999999</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.286999999999978</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.4909999999999997</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.4759999999999991</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="Q12" s="4">
+        <f t="shared" ref="Q12:R12" si="9">Q7-Q11</f>
+        <v>-26.575000000000003</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="2">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="2">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="U12" s="2">
+      <c r="Y12" s="2">
         <v>-4.0609999999999999</v>
       </c>
-      <c r="V12" s="2">
+      <c r="Z12" s="2">
         <v>-4.0609999999999999</v>
       </c>
-      <c r="W12" s="2">
-        <f t="shared" ref="W12:AG12" si="7">+W7-W11</f>
+      <c r="AA12" s="2">
+        <f t="shared" ref="AA12:AK12" si="10">+AA7-AA11</f>
         <v>-33.312999999999988</v>
       </c>
-      <c r="X12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AB12" s="2">
+        <f t="shared" si="10"/>
         <v>-47.849000000000004</v>
       </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AC12" s="2">
+        <f t="shared" si="10"/>
         <v>-52.217000000000013</v>
       </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AD12" s="2">
+        <f t="shared" si="10"/>
         <v>-69.689000000000021</v>
       </c>
-      <c r="AA12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AE12" s="2">
+        <f t="shared" si="10"/>
         <v>-57.157999999999987</v>
       </c>
-      <c r="AB12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AF12" s="2">
+        <f t="shared" si="10"/>
         <v>-41.162999999999982</v>
       </c>
-      <c r="AC12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AG12" s="2">
+        <f t="shared" si="10"/>
         <v>-22.685999999999979</v>
       </c>
-      <c r="AD12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AH12" s="2">
+        <f t="shared" si="10"/>
         <v>-5.6309999999999718</v>
       </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AI12" s="2">
+        <f t="shared" si="10"/>
         <v>17.81699999999995</v>
       </c>
-      <c r="AF12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AJ12" s="2">
+        <f t="shared" si="10"/>
         <v>56.752999999999929</v>
       </c>
-      <c r="AG12" s="2">
-        <f t="shared" si="7"/>
+      <c r="AK12" s="2">
+        <f t="shared" si="10"/>
         <v>78.106999999999971</v>
       </c>
-      <c r="AH12" s="2">
-        <f t="shared" ref="AH12:AJ12" si="8">+AH7-AH11</f>
+      <c r="AL12" s="2">
+        <f t="shared" ref="AL12:AN12" si="11">+AL7-AL11</f>
         <v>8.9569999999998799</v>
       </c>
-      <c r="AI12" s="2">
-        <f t="shared" si="8"/>
+      <c r="AM12" s="2">
+        <f t="shared" si="11"/>
         <v>-67.725000000000023</v>
       </c>
-      <c r="AJ12" s="2">
-        <f t="shared" si="8"/>
-        <v>298.22129999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN12" s="2">
+        <f t="shared" si="11"/>
+        <v>109.45800000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2135,198 +2308,211 @@
       <c r="P13" s="4">
         <v>6.468</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="4">
+        <v>6.9279999999999999</v>
+      </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="2">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="2">
         <v>-5.9729999999999999</v>
       </c>
-      <c r="U13" s="2">
+      <c r="Y13" s="2">
         <v>-5.9729999999999999</v>
       </c>
-      <c r="V13" s="2">
+      <c r="Z13" s="2">
         <v>-1.7030000000000001</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AA13" s="2">
         <v>-1.7030000000000001</v>
       </c>
-      <c r="X13" s="2">
+      <c r="AB13" s="2">
         <v>-3.7589999999999999</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AC13" s="2">
         <v>-4.1769999999999996</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AD13" s="2">
         <v>0.56200000000000006</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AE13" s="2">
         <v>-3.1E-2</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AF13" s="2">
         <v>-0.46800000000000003</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AG13" s="2">
         <v>0.48599999999999999</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AH13" s="2">
         <v>-7.2380000000000004</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AI13" s="2">
         <v>-24.788</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AJ13" s="2">
         <v>0</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AK13" s="2">
         <f>SUM(C13:F13)</f>
         <v>4.84</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AL13" s="2">
         <f>SUM(G13:J13)</f>
         <v>-2.2689999999999997</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AM13" s="2">
         <f>SUM(K13:N13)</f>
         <v>13.441999999999998</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AN13" s="2">
         <f>SUM(O13:R13)</f>
-        <v>16.597999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>23.526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:P14" si="9">C13+C12</f>
+        <f t="shared" ref="C14:Q14" si="12">C13+C12</f>
         <v>14.849999999999982</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>34.989000000000011</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.3980000000000183</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25.710000000000004</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.959000000000005</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.5359999999999889</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-12.960000000000003</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.1530000000000022</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.3620000000000019</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-19.809999999999999</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-58.602999999999987</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>17.767999999999979</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.6390000000000011</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.9920000000000009</v>
       </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4">
+        <f t="shared" si="12"/>
+        <v>-19.647000000000002</v>
+      </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="2">
-        <f t="shared" ref="T14:AG14" si="10">+T12+T13</f>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="2">
+        <f t="shared" ref="X14:AK14" si="13">+X12+X13</f>
         <v>-6.1179999999999994</v>
       </c>
-      <c r="U14" s="2">
-        <f t="shared" si="10"/>
+      <c r="Y14" s="2">
+        <f t="shared" si="13"/>
         <v>-10.033999999999999</v>
       </c>
-      <c r="V14" s="2">
-        <f t="shared" si="10"/>
+      <c r="Z14" s="2">
+        <f t="shared" si="13"/>
         <v>-5.7640000000000002</v>
       </c>
-      <c r="W14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AA14" s="2">
+        <f t="shared" si="13"/>
         <v>-35.015999999999991</v>
       </c>
-      <c r="X14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AB14" s="2">
+        <f t="shared" si="13"/>
         <v>-51.608000000000004</v>
       </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AC14" s="2">
+        <f t="shared" si="13"/>
         <v>-56.394000000000013</v>
       </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AD14" s="2">
+        <f t="shared" si="13"/>
         <v>-69.127000000000024</v>
       </c>
-      <c r="AA14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AE14" s="2">
+        <f t="shared" si="13"/>
         <v>-57.188999999999986</v>
       </c>
-      <c r="AB14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AF14" s="2">
+        <f t="shared" si="13"/>
         <v>-41.630999999999986</v>
       </c>
-      <c r="AC14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AG14" s="2">
+        <f t="shared" si="13"/>
         <v>-22.199999999999978</v>
       </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AH14" s="2">
+        <f t="shared" si="13"/>
         <v>-12.868999999999971</v>
       </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AI14" s="2">
+        <f t="shared" si="13"/>
         <v>-6.9710000000000498</v>
       </c>
-      <c r="AF14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AJ14" s="2">
+        <f t="shared" si="13"/>
         <v>56.752999999999929</v>
       </c>
-      <c r="AG14" s="2">
-        <f t="shared" si="10"/>
+      <c r="AK14" s="2">
+        <f t="shared" si="13"/>
         <v>82.946999999999974</v>
       </c>
-      <c r="AH14" s="2">
-        <f t="shared" ref="AH14:AJ14" si="11">+AH12+AH13</f>
+      <c r="AL14" s="2">
+        <f t="shared" ref="AL14:AN14" si="14">+AL12+AL13</f>
         <v>6.6879999999998798</v>
       </c>
-      <c r="AI14" s="2">
-        <f t="shared" si="11"/>
+      <c r="AM14" s="2">
+        <f t="shared" si="14"/>
         <v>-54.283000000000023</v>
       </c>
-      <c r="AJ14" s="2">
-        <f t="shared" si="11"/>
-        <v>314.81929999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN14" s="2">
+        <f t="shared" si="14"/>
+        <v>132.98400000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2372,198 +2558,211 @@
       <c r="P15" s="4">
         <v>0</v>
       </c>
-      <c r="Q15" s="4"/>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="2">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="U15" s="2">
+      <c r="Y15" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="V15" s="2">
+      <c r="Z15" s="2">
         <v>1.6719999999999999</v>
       </c>
-      <c r="W15" s="2">
+      <c r="AA15" s="2">
         <v>-0.2</v>
       </c>
-      <c r="X15" s="2">
+      <c r="AB15" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AC15" s="2">
         <v>0.64200000000000002</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AD15" s="2">
         <v>0.186</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AE15" s="2">
         <v>1.4790000000000001</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AF15" s="2">
         <v>1.7070000000000001</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AG15" s="2">
         <v>1.802</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AH15" s="2">
         <v>1.43</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AI15" s="2">
         <v>2.6339999999999999</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AJ15" s="2">
         <v>0</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AK15" s="2">
         <f>SUM(C15:F15)</f>
         <v>7.1970000000000001</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AL15" s="2">
         <f>SUM(G15:J15)</f>
         <v>3.6869999999999994</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AM15" s="2">
         <f>SUM(K15:N15)</f>
         <v>12.279</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AN15" s="2">
         <f>SUM(O15:R15)</f>
         <v>9.0589999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:P16" si="12">C14-C15</f>
+        <f t="shared" ref="C16:Q16" si="15">C14-C15</f>
         <v>12.028999999999982</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32.76400000000001</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.6510000000000185</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24.306000000000004</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.7420000000000053</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.4759999999999893</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-12.665000000000003</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.4480000000000022</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.1860000000000017</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-19.809999999999999</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-58.602999999999987</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.6649999999999796</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.4199999999999982</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.9920000000000009</v>
       </c>
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="4">
+        <f t="shared" si="15"/>
+        <v>-19.647000000000002</v>
+      </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="2">
-        <f t="shared" ref="T16:AG16" si="13">+T14-T15</f>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="2">
+        <f t="shared" ref="X16:AK16" si="16">+X14-X15</f>
         <v>-6.145999999999999</v>
       </c>
-      <c r="U16" s="2">
-        <f t="shared" si="13"/>
+      <c r="Y16" s="2">
+        <f t="shared" si="16"/>
         <v>-10.081</v>
       </c>
-      <c r="V16" s="2">
-        <f t="shared" si="13"/>
+      <c r="Z16" s="2">
+        <f t="shared" si="16"/>
         <v>-7.4359999999999999</v>
       </c>
-      <c r="W16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AA16" s="2">
+        <f t="shared" si="16"/>
         <v>-34.815999999999988</v>
       </c>
-      <c r="X16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AB16" s="2">
+        <f t="shared" si="16"/>
         <v>-51.637000000000008</v>
       </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AC16" s="2">
+        <f t="shared" si="16"/>
         <v>-57.036000000000016</v>
       </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AD16" s="2">
+        <f t="shared" si="16"/>
         <v>-69.313000000000031</v>
       </c>
-      <c r="AA16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AE16" s="2">
+        <f t="shared" si="16"/>
         <v>-58.667999999999985</v>
       </c>
-      <c r="AB16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AF16" s="2">
+        <f t="shared" si="16"/>
         <v>-43.337999999999987</v>
       </c>
-      <c r="AC16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AG16" s="2">
+        <f t="shared" si="16"/>
         <v>-24.001999999999978</v>
       </c>
-      <c r="AD16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AH16" s="2">
+        <f t="shared" si="16"/>
         <v>-14.298999999999971</v>
       </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AI16" s="2">
+        <f t="shared" si="16"/>
         <v>-9.6050000000000502</v>
       </c>
-      <c r="AF16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AJ16" s="2">
+        <f t="shared" si="16"/>
         <v>56.752999999999929</v>
       </c>
-      <c r="AG16" s="2">
-        <f t="shared" si="13"/>
+      <c r="AK16" s="2">
+        <f t="shared" si="16"/>
         <v>75.749999999999972</v>
       </c>
-      <c r="AH16" s="2">
-        <f t="shared" ref="AH16:AJ16" si="14">+AH14-AH15</f>
+      <c r="AL16" s="2">
+        <f t="shared" ref="AL16:AN16" si="17">+AL14-AL15</f>
         <v>3.0009999999998804</v>
       </c>
-      <c r="AI16" s="2">
-        <f t="shared" si="14"/>
+      <c r="AM16" s="2">
+        <f t="shared" si="17"/>
         <v>-66.562000000000026</v>
       </c>
-      <c r="AJ16" s="2">
-        <f t="shared" si="14"/>
-        <v>305.76029999999992</v>
-      </c>
-    </row>
-    <row r="17" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN16" s="2">
+        <f t="shared" si="17"/>
+        <v>123.92500000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2596,11 +2795,18 @@
         <f>+P16/P18</f>
         <v>2.9160656504619711E-2</v>
       </c>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="10">
+        <f>+Q16/Q18</f>
+        <v>-0.18941796901362284</v>
+      </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2646,200 +2852,263 @@
       <c r="P18" s="4">
         <v>102.604</v>
       </c>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4">
+        <v>103.723</v>
+      </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="2">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="2">
         <v>7.6520000000000001</v>
       </c>
-      <c r="U18" s="2">
+      <c r="Y18" s="2">
         <v>9.7889999999999997</v>
       </c>
-      <c r="V18" s="2">
+      <c r="Z18" s="2">
         <v>10.430999999999999</v>
       </c>
-      <c r="W18" s="2">
+      <c r="AA18" s="2">
         <v>8.4529999999999994</v>
       </c>
-      <c r="X18" s="2">
+      <c r="AB18" s="2">
         <v>11.183</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AC18" s="2">
         <v>20.902000000000001</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AD18" s="2">
         <v>83.204999999999998</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AE18" s="2">
         <v>86.817999999999998</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AF18" s="2">
         <v>90.534000000000006</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AG18" s="2">
         <v>100.02200000000001</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AH18" s="2">
         <v>113.251</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AI18" s="2">
         <v>119.20399999999999</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AJ18" s="2">
         <v>125.367</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AK18" s="2">
         <v>141.262</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AL18" s="2">
         <f>AVERAGE(G18:J18)</f>
         <v>139.60175000000001</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AM18" s="2">
         <f>AVERAGE(K18:N18)</f>
         <v>122.88924999999999</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AN18" s="2">
         <f>AVERAGE(O18:R18)</f>
-        <v>102.4735</v>
-      </c>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+        <v>102.89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:R20" si="15">+G5/C5-1</f>
+        <f t="shared" ref="G20:R20" si="18">+G5/C5-1</f>
         <v>1.9488048069846498E-2</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.8929050071040621E-2</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-4.1892033360086511E-2</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.0960779304660551E-2</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-7.2402642352801583E-2</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-6.0948742046312399E-2</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-4.1793382259209921E-2</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-8.3852763008484765E-2</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-7.0633951844606413E-2</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.10776962915566068</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="15"/>
-        <v>-0.14477935307309298</v>
+        <f t="shared" si="18"/>
+        <v>-0.13464340466507041</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="15"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-      <c r="U20" s="8">
-        <f t="shared" ref="U20:AJ20" si="16">+U5/T5-1</f>
+        <f t="shared" si="18"/>
+        <v>-0.2446286179363466</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="Y20" s="8">
+        <f t="shared" ref="Y20:AN20" si="19">+Y5/X5-1</f>
         <v>5.2889823823297402</v>
       </c>
-      <c r="V20" s="8">
-        <f t="shared" si="16"/>
+      <c r="Z20" s="8">
+        <f t="shared" si="19"/>
         <v>2.1133085253167199</v>
       </c>
-      <c r="W20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AA20" s="8">
+        <f t="shared" si="19"/>
         <v>0.15508789836290138</v>
       </c>
-      <c r="X20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AB20" s="8">
+        <f t="shared" si="19"/>
         <v>0.24018416677324472</v>
       </c>
-      <c r="Y20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AC20" s="8">
+        <f t="shared" si="19"/>
         <v>0.19800406873728504</v>
       </c>
-      <c r="Z20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AD20" s="8">
+        <f t="shared" si="19"/>
         <v>0.19273794385209819</v>
       </c>
-      <c r="AA20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AE20" s="8">
+        <f t="shared" si="19"/>
         <v>-1.1353720385521293E-2</v>
       </c>
-      <c r="AB20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AF20" s="8">
+        <f t="shared" si="19"/>
         <v>-0.15689195780643916</v>
       </c>
-      <c r="AC20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AG20" s="8">
+        <f t="shared" si="19"/>
         <v>3.8411586445747936E-3</v>
       </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AH20" s="8">
+        <f t="shared" si="19"/>
         <v>0.25882712709651612</v>
       </c>
-      <c r="AE20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AI20" s="8">
+        <f t="shared" si="19"/>
         <v>0.27980839904822408</v>
       </c>
-      <c r="AF20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AJ20" s="8">
+        <f t="shared" si="19"/>
         <v>0.56801467904196867</v>
       </c>
-      <c r="AG20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AK20" s="8">
+        <f t="shared" si="19"/>
         <v>0.2047481290875286</v>
       </c>
-      <c r="AH20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AL20" s="8">
+        <f t="shared" si="19"/>
         <v>-1.2068043773711179E-2</v>
       </c>
-      <c r="AI20" s="8">
-        <f t="shared" si="16"/>
+      <c r="AM20" s="8">
+        <f t="shared" si="19"/>
         <v>-6.5982785171933234E-2</v>
       </c>
-      <c r="AJ20" s="8">
-        <f t="shared" si="16"/>
-        <v>-0.10416057629887121</v>
-      </c>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AN20" s="8">
+        <f t="shared" si="19"/>
+        <v>-0.13988370713183806</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
+      <c r="C21" s="7">
+        <f t="shared" ref="C21:J21" si="20">+C7/C5</f>
+        <v>0.64016171148010359</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.69413234716190209</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.60974049388747364</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.73147536716682648</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.72763098039991292</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.76538740043446785</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.72560838659940874</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.74938716233009894</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" ref="K21:O21" si="21">+K7/K5</f>
+        <v>0.73800779313543097</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="21"/>
+        <v>0.74070975045528376</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="21"/>
+        <v>0.47055506987469436</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="21"/>
+        <v>0.75634485363349591</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="21"/>
+        <v>0.73331230283911675</v>
+      </c>
+      <c r="P21" s="7">
+        <f>+P7/P5</f>
+        <v>0.72165592992822425</v>
+      </c>
+      <c r="Q21" s="7">
+        <f>+Q7/Q5</f>
+        <v>0.68213762811127376</v>
+      </c>
+      <c r="R21" s="7">
+        <f>+R7/R5</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -2852,25 +3121,29 @@
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" ref="K23:N23" si="17">+K24-K38</f>
+        <f t="shared" ref="K23:N23" si="22">+K24-K38</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O23" s="4">
@@ -2881,8 +3154,12 @@
         <f>+P24-P38</f>
         <v>4.47199999999998</v>
       </c>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Q23" s="4">
+        <f>+Q24-Q38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -2895,7 +3172,7 @@
         <v>605.38900000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -2906,7 +3183,7 @@
         <v>20.963999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
@@ -2917,7 +3194,7 @@
         <v>30.841000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -2928,7 +3205,7 @@
         <v>36.279000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -2939,7 +3216,7 @@
         <v>179.27799999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -2952,7 +3229,7 @@
         <v>202.61700000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2963,7 +3240,7 @@
         <v>21.507999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -2974,7 +3251,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -2985,7 +3262,7 @@
         <v>15.167</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>49</v>
       </c>
@@ -2998,11 +3275,11 @@
         <v>1114.3300000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>57</v>
       </c>
@@ -3013,7 +3290,7 @@
         <v>14.423999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>56</v>
       </c>
@@ -3024,7 +3301,7 @@
         <v>45.023000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>55</v>
       </c>
@@ -3035,7 +3312,7 @@
         <v>68.001000000000005</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3325,7 @@
         <v>600.91700000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -3059,7 +3336,7 @@
         <v>15.595000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>53</v>
       </c>
@@ -3070,7 +3347,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>52</v>
       </c>
@@ -3081,7 +3358,7 @@
         <v>365.5</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>51</v>
       </c>
@@ -3094,7 +3371,7 @@
         <v>1114.33</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>58</v>
       </c>
@@ -3107,7 +3384,7 @@
         <v>2.9920000000000009</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3395,12 @@
         <f>-618.304-O45</f>
         <v>-616.88400000000001</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="4">
+        <f>-830.943-P45-O45</f>
+        <v>-212.63899999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>60</v>
       </c>
@@ -3130,8 +3411,12 @@
         <f>47.336-O46</f>
         <v>18.046999999999997</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="4">
+        <f>69.267-P46-O46</f>
+        <v>21.930999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -3142,8 +3427,12 @@
         <f>39.393-O47</f>
         <v>19.706</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="4">
+        <f>58.966-P47-O47</f>
+        <v>19.573000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>62</v>
       </c>
@@ -3154,8 +3443,12 @@
         <f>141.032-O48</f>
         <v>138.155</v>
       </c>
-    </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q48" s="4">
+        <f>141.103-P48-O48</f>
+        <v>7.1000000000007724E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>54</v>
       </c>
@@ -3166,8 +3459,12 @@
         <f>3.141-O49</f>
         <v>1.5740000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q49" s="4">
+        <f>4.647-P49-O49</f>
+        <v>1.5060000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>63</v>
       </c>
@@ -3178,8 +3475,12 @@
         <f>1.081-O50</f>
         <v>0.53999999999999992</v>
       </c>
-    </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q50" s="4">
+        <f>1.628-P50-O50</f>
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>64</v>
       </c>
@@ -3188,8 +3489,12 @@
         <f>481.531-O51+1.657</f>
         <v>483.18799999999999</v>
       </c>
-    </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q51" s="4">
+        <f>677.239-P51-O51</f>
+        <v>194.05100000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>65</v>
       </c>
@@ -3200,8 +3505,12 @@
         <f>2.189-O52</f>
         <v>1.7110000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q52" s="4">
+        <f>2.189-P52-O52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>48</v>
       </c>
@@ -3212,8 +3521,12 @@
         <f>0.082-O53</f>
         <v>0.113</v>
       </c>
-    </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q53" s="4">
+        <f>5.1-P53-O53+0.222</f>
+        <v>5.2399999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>66</v>
       </c>
@@ -3225,8 +3538,12 @@
         <f>10.561-12.173-0.773-12.045-10.226-4.057-2.88-O54</f>
         <v>-31.923000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q54" s="4">
+        <f>8.019-55.725-0.469-8.308-11.763+46.849-2.968-P54-O54</f>
+        <v>7.2279999999999891</v>
+      </c>
+    </row>
+    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>38</v>
       </c>
@@ -3238,8 +3555,15 @@
         <f>SUM(P45:P54)</f>
         <v>14.227000000000018</v>
       </c>
-    </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q55" s="4">
+        <f>SUM(Q45:Q54)</f>
+        <v>37.508000000000067</v>
+      </c>
+    </row>
+    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>38</v>
       </c>
@@ -3255,7 +3579,7 @@
         <v>32.806999999999988</v>
       </c>
       <c r="N57" s="4">
-        <f>+AI57-M57-L57-K57</f>
+        <f>+AM57-M57-L57-K57</f>
         <v>77.484000000000009</v>
       </c>
       <c r="O57" s="4">
@@ -3265,47 +3589,51 @@
         <f>67.545-O57</f>
         <v>14.227000000000004</v>
       </c>
-      <c r="W57" s="2">
+      <c r="Q57" s="4">
+        <f>67.545-P57</f>
+        <v>53.317999999999998</v>
+      </c>
+      <c r="AA57" s="2">
         <v>32.753999999999998</v>
       </c>
-      <c r="X57" s="2">
+      <c r="AB57" s="2">
         <v>54.680999999999997</v>
       </c>
-      <c r="Y57" s="2">
+      <c r="AC57" s="2">
         <v>63.706000000000003</v>
       </c>
-      <c r="Z57" s="2">
+      <c r="AD57" s="2">
         <v>68.474999999999994</v>
       </c>
-      <c r="AA57" s="2">
+      <c r="AE57" s="2">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="AB57" s="2">
+      <c r="AF57" s="2">
         <v>24.937999999999999</v>
       </c>
-      <c r="AC57" s="2">
+      <c r="AG57" s="2">
         <v>51.55</v>
       </c>
-      <c r="AD57" s="2">
+      <c r="AH57" s="2">
         <v>75.113</v>
       </c>
-      <c r="AE57" s="2">
+      <c r="AI57" s="2">
         <v>113.40300000000001</v>
       </c>
-      <c r="AF57" s="2">
+      <c r="AJ57" s="2">
         <v>236.44200000000001</v>
       </c>
-      <c r="AG57" s="2">
+      <c r="AK57" s="2">
         <v>273.22399999999999</v>
       </c>
-      <c r="AH57" s="2">
+      <c r="AL57" s="2">
         <v>255.73599999999999</v>
       </c>
-      <c r="AI57" s="2">
+      <c r="AM57" s="2">
         <v>246.19800000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>39</v>
       </c>
@@ -3321,7 +3649,7 @@
         <v>23.434000000000008</v>
       </c>
       <c r="N58" s="4">
-        <f>+AI58-M58-L58-K58</f>
+        <f>+AM58-M58-L58-K58</f>
         <v>25.754000000000001</v>
       </c>
       <c r="O58" s="4">
@@ -3331,128 +3659,136 @@
         <f>45.817-O58</f>
         <v>17.8</v>
       </c>
-      <c r="W58" s="2">
+      <c r="Q58" s="4">
+        <f>61.659-P58-O58</f>
+        <v>15.841999999999995</v>
+      </c>
+      <c r="AA58" s="2">
         <v>-2.7069999999999999</v>
       </c>
-      <c r="X58" s="2">
+      <c r="AB58" s="2">
         <v>15.148</v>
       </c>
-      <c r="Y58" s="2">
+      <c r="AC58" s="2">
         <v>7.3689999999999998</v>
       </c>
-      <c r="Z58" s="2">
+      <c r="AD58" s="2">
         <v>5.0830000000000002</v>
       </c>
-      <c r="AA58" s="2">
+      <c r="AE58" s="2">
         <v>8.2530000000000001</v>
       </c>
-      <c r="AB58" s="2">
+      <c r="AF58" s="2">
         <v>24.689</v>
       </c>
-      <c r="AC58" s="2">
+      <c r="AG58" s="2">
         <v>31.222999999999999</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AH58" s="2">
         <v>31.222999999999999</v>
       </c>
-      <c r="AE58" s="2">
+      <c r="AI58" s="2">
         <v>42.326000000000001</v>
       </c>
-      <c r="AF58" s="2">
+      <c r="AJ58" s="2">
         <v>81.316999999999993</v>
       </c>
-      <c r="AG58" s="2">
+      <c r="AK58" s="2">
         <v>94.18</v>
       </c>
-      <c r="AH58" s="2">
+      <c r="AL58" s="2">
         <v>103.092</v>
       </c>
-      <c r="AI58" s="2">
+      <c r="AM58" s="2">
         <v>83.052000000000007</v>
       </c>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>40</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" ref="K59:P59" si="18">+K57-K58</f>
+        <f t="shared" ref="K59:Q59" si="23">+K57-K58</f>
         <v>55.994</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>46.049000000000021</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>9.3729999999999798</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>51.730000000000004</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>25.300999999999998</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3.5729999999999968</v>
       </c>
-      <c r="W59" s="2">
-        <f t="shared" ref="W59:AF59" si="19">+W57-W58</f>
+      <c r="Q59" s="4">
+        <f t="shared" si="23"/>
+        <v>37.475999999999999</v>
+      </c>
+      <c r="AA59" s="2">
+        <f t="shared" ref="AA59:AJ59" si="24">+AA57-AA58</f>
         <v>35.460999999999999</v>
       </c>
-      <c r="X59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AB59" s="2">
+        <f t="shared" si="24"/>
         <v>39.533000000000001</v>
       </c>
-      <c r="Y59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AC59" s="2">
+        <f t="shared" si="24"/>
         <v>56.337000000000003</v>
       </c>
-      <c r="Z59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AD59" s="2">
+        <f t="shared" si="24"/>
         <v>63.391999999999996</v>
       </c>
-      <c r="AA59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AE59" s="2">
+        <f t="shared" si="24"/>
         <v>-8.3350000000000009</v>
       </c>
-      <c r="AB59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AF59" s="2">
+        <f t="shared" si="24"/>
         <v>0.24899999999999878</v>
       </c>
-      <c r="AC59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AG59" s="2">
+        <f t="shared" si="24"/>
         <v>20.326999999999998</v>
       </c>
-      <c r="AD59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AH59" s="2">
+        <f t="shared" si="24"/>
         <v>43.89</v>
       </c>
-      <c r="AE59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AI59" s="2">
+        <f t="shared" si="24"/>
         <v>71.076999999999998</v>
       </c>
-      <c r="AF59" s="2">
-        <f t="shared" si="19"/>
+      <c r="AJ59" s="2">
+        <f t="shared" si="24"/>
         <v>155.125</v>
       </c>
-      <c r="AG59" s="2">
-        <f>+AG57-AG58</f>
+      <c r="AK59" s="2">
+        <f>+AK57-AK58</f>
         <v>179.04399999999998</v>
       </c>
-      <c r="AH59" s="2">
-        <f>+AH57-AH58</f>
+      <c r="AL59" s="2">
+        <f>+AL57-AL58</f>
         <v>152.64400000000001</v>
       </c>
-      <c r="AI59" s="2">
-        <f>+AI57-AI58</f>
+      <c r="AM59" s="2">
+        <f>+AM57-AM58</f>
         <v>163.14600000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>39</v>
       </c>
@@ -3464,7 +3800,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>73</v>
       </c>
@@ -3477,7 +3813,7 @@
         <v>-5.4819999999999922</v>
       </c>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>72</v>
       </c>
@@ -3567,5 +3903,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CHGG.xlsx
+++ b/CHGG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF9CD7E-812F-4E94-B2A8-2A66E5A8AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864FFFB-65C9-4FDD-AC2B-641640DC83E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27930" yWindow="4230" windowWidth="26220" windowHeight="14910" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
+    <workbookView xWindow="1530" yWindow="3150" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D48E61D8-28FC-4407-A089-C75FAB3BC964}</author>
+    <author>tc={2D8DC226-FF75-4465-A946-10A0338AB050}</author>
+    <author>tc={243129A9-36F0-414A-887E-BF2D9C963AC1}</author>
+    <author>tc={B0AC3EC7-F52B-4BEF-BCEC-68F9E9167CEB}</author>
+    <author>tc={ED07B122-5C2C-4AF0-AAF4-023AC3FDABAB}</author>
   </authors>
   <commentList>
     <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{D48E61D8-28FC-4407-A089-C75FAB3BC964}">
@@ -48,6 +52,38 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Q2 guidance: 133-135m</t>
+      </text>
+    </comment>
+    <comment ref="R5" authorId="1" shapeId="0" xr:uid="{2D8DC226-FF75-4465-A946-10A0338AB050}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 142m</t>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="2" shapeId="0" xr:uid="{243129A9-36F0-414A-887E-BF2D9C963AC1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 139m</t>
+      </text>
+    </comment>
+    <comment ref="R17" authorId="3" shapeId="0" xr:uid="{B0AC3EC7-F52B-4BEF-BCEC-68F9E9167CEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 0.16</t>
+      </text>
+    </comment>
+    <comment ref="S17" authorId="4" shapeId="0" xr:uid="{ED07B122-5C2C-4AF0-AAF4-023AC3FDABAB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    0.18 consensus</t>
       </text>
     </comment>
   </commentList>
@@ -482,14 +518,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>32546</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>41303</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>32546</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>41303</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>85396</xdr:rowOff>
     </xdr:to>
@@ -506,8 +542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10739960" y="0"/>
-          <a:ext cx="0" cy="15029793"/>
+          <a:off x="11904855" y="0"/>
+          <a:ext cx="0" cy="14440775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -859,6 +895,18 @@
   <threadedComment ref="Q5" dT="2024-11-12T18:27:23.97" personId="{B93B85B5-F728-48CD-935D-41A7F3159B4C}" id="{D48E61D8-28FC-4407-A089-C75FAB3BC964}">
     <text>Q2 guidance: 133-135m</text>
   </threadedComment>
+  <threadedComment ref="R5" dT="2025-02-24T20:57:25.36" personId="{B93B85B5-F728-48CD-935D-41A7F3159B4C}" id="{2D8DC226-FF75-4465-A946-10A0338AB050}">
+    <text>Consensus 142m</text>
+  </threadedComment>
+  <threadedComment ref="S5" dT="2025-02-24T20:57:40.84" personId="{B93B85B5-F728-48CD-935D-41A7F3159B4C}" id="{243129A9-36F0-414A-887E-BF2D9C963AC1}">
+    <text>Consensus 139m</text>
+  </threadedComment>
+  <threadedComment ref="R17" dT="2025-02-24T20:57:31.78" personId="{B93B85B5-F728-48CD-935D-41A7F3159B4C}" id="{B0AC3EC7-F52B-4BEF-BCEC-68F9E9167CEB}">
+    <text>Consensus 0.16</text>
+  </threadedComment>
+  <threadedComment ref="S17" dT="2025-02-24T20:57:54.25" personId="{B93B85B5-F728-48CD-935D-41A7F3159B4C}" id="{ED07B122-5C2C-4AF0-AAF4-023AC3FDABAB}">
+    <text>0.18 consensus</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -866,13 +914,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853FF35D-C759-48E7-97C1-902D05ECE912}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>77</v>
       </c>
@@ -880,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -897,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -906,10 +954,10 @@
       </c>
       <c r="K4" s="2">
         <f>+K3*K2</f>
-        <v>155.5048185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>103.66987899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -924,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -939,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>79</v>
       </c>
@@ -948,10 +996,10 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>151.03281850000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>99.197879</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>80</v>
       </c>
@@ -959,7 +1007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -967,17 +1015,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>85</v>
       </c>
@@ -994,26 +1042,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCFFC2-AFE9-4B81-83F2-83199EB3420A}">
   <dimension ref="A1:AY75"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="T57" sqref="T57:T59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="32" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="9.1796875" style="3"/>
+    <col min="18" max="18" width="9.36328125" style="3" customWidth="1"/>
+    <col min="19" max="32" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1222,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1225,11 +1275,11 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AE4"/>
       <c r="AF4"/>
     </row>
-    <row r="5" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1279,11 +1329,10 @@
         <v>136.6</v>
       </c>
       <c r="R5" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S5" s="6">
-        <f>+O5*0.9</f>
-        <v>156.91499999999999</v>
+        <v>111</v>
       </c>
       <c r="T5" s="6">
         <f>+P5*0.9</f>
@@ -1295,7 +1344,7 @@
       </c>
       <c r="V5" s="6">
         <f>+R5*0.9</f>
-        <v>127.8</v>
+        <v>128.70000000000002</v>
       </c>
       <c r="W5" s="6"/>
       <c r="X5" s="5">
@@ -1351,54 +1400,54 @@
       </c>
       <c r="AN5" s="5">
         <f>SUM(O5:R5)</f>
-        <v>616.09699999999998</v>
+        <v>617.09699999999998</v>
       </c>
       <c r="AO5" s="5">
         <f t="shared" ref="AO5:AY5" si="1">+AN5*0.9</f>
-        <v>554.4873</v>
+        <v>555.38729999999998</v>
       </c>
       <c r="AP5" s="5">
         <f t="shared" si="1"/>
-        <v>499.03856999999999</v>
+        <v>499.84857</v>
       </c>
       <c r="AQ5" s="5">
         <f t="shared" si="1"/>
-        <v>449.13471299999998</v>
+        <v>449.86371300000002</v>
       </c>
       <c r="AR5" s="5">
         <f t="shared" si="1"/>
-        <v>404.22124170000001</v>
+        <v>404.87734170000004</v>
       </c>
       <c r="AS5" s="5">
         <f t="shared" si="1"/>
-        <v>363.79911752999999</v>
+        <v>364.38960753000003</v>
       </c>
       <c r="AT5" s="5">
         <f t="shared" si="1"/>
-        <v>327.419205777</v>
+        <v>327.95064677700003</v>
       </c>
       <c r="AU5" s="5">
         <f t="shared" si="1"/>
-        <v>294.6772851993</v>
+        <v>295.15558209930003</v>
       </c>
       <c r="AV5" s="5">
         <f t="shared" si="1"/>
-        <v>265.20955667937</v>
+        <v>265.64002388937001</v>
       </c>
       <c r="AW5" s="5">
         <f t="shared" si="1"/>
-        <v>238.68860101143301</v>
+        <v>239.07602150043303</v>
       </c>
       <c r="AX5" s="5">
         <f t="shared" si="1"/>
-        <v>214.81974091028971</v>
+        <v>215.16841935038974</v>
       </c>
       <c r="AY5" s="5">
         <f t="shared" si="1"/>
-        <v>193.33776681926074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193.65157741535077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1496,9 @@
       <c r="Q6" s="4">
         <v>43.42</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4">
+        <v>45.598999999999997</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1506,10 +1557,10 @@
       </c>
       <c r="AN6" s="2">
         <f>SUM(O6:R6)</f>
-        <v>135.328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>180.92699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +1624,10 @@
         <f>+Q5-Q6</f>
         <v>93.179999999999993</v>
       </c>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4">
+        <f>+R5-R6</f>
+        <v>97.40100000000001</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1645,10 +1699,10 @@
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="3"/>
-        <v>480.76900000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>436.16999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1697,7 +1751,9 @@
       <c r="Q8" s="4">
         <v>41.337000000000003</v>
       </c>
-      <c r="R8" s="4"/>
+      <c r="R8" s="4">
+        <v>41.008000000000003</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1756,10 +1812,10 @@
       </c>
       <c r="AN8" s="2">
         <f>SUM(O8:R8)</f>
-        <v>129.423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>170.43100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1808,7 +1864,9 @@
       <c r="Q9" s="4">
         <v>26.507999999999999</v>
       </c>
-      <c r="R9" s="4"/>
+      <c r="R9" s="4">
+        <v>27.901</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1867,10 +1925,10 @@
       </c>
       <c r="AN9" s="2">
         <f>SUM(O9:R9)</f>
-        <v>80.427999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>108.32899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1919,7 +1977,9 @@
       <c r="Q10" s="4">
         <v>51.91</v>
       </c>
-      <c r="R10" s="4"/>
+      <c r="R10" s="4">
+        <v>56.295999999999999</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -1978,10 +2038,10 @@
       </c>
       <c r="AN10" s="2">
         <f>SUM(O10:R10)</f>
-        <v>161.45999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>217.75599999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2047,7 +2107,7 @@
       </c>
       <c r="R11" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>125.20500000000001</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2120,10 +2180,10 @@
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="7"/>
-        <v>371.31099999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>496.51599999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2189,7 +2249,7 @@
       </c>
       <c r="R12" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-27.804000000000002</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -2259,10 +2319,10 @@
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="11"/>
-        <v>109.45800000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-60.346000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2311,7 +2371,9 @@
       <c r="Q13" s="4">
         <v>6.9279999999999999</v>
       </c>
-      <c r="R13" s="4"/>
+      <c r="R13" s="4">
+        <v>25.847000000000001</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -2370,15 +2432,15 @@
       </c>
       <c r="AN13" s="2">
         <f>SUM(O13:R13)</f>
-        <v>23.526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>49.373000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:Q14" si="12">C13+C12</f>
+        <f t="shared" ref="C14:R14" si="12">C13+C12</f>
         <v>14.849999999999982</v>
       </c>
       <c r="D14" s="4">
@@ -2437,7 +2499,10 @@
         <f t="shared" si="12"/>
         <v>-19.647000000000002</v>
       </c>
-      <c r="R14" s="4"/>
+      <c r="R14" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9570000000000007</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -2509,10 +2574,10 @@
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="14"/>
-        <v>132.98400000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-10.972999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2561,7 +2626,9 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="4"/>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
@@ -2623,12 +2690,12 @@
         <v>9.0589999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:Q16" si="15">C14-C15</f>
+        <f t="shared" ref="C16:R16" si="15">C14-C15</f>
         <v>12.028999999999982</v>
       </c>
       <c r="D16" s="4">
@@ -2687,7 +2754,10 @@
         <f t="shared" si="15"/>
         <v>-19.647000000000002</v>
       </c>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4">
+        <f t="shared" si="15"/>
+        <v>-1.9570000000000007</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -2759,10 +2829,10 @@
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="17"/>
-        <v>123.92500000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-20.031999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2776,37 +2846,40 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="10">
-        <f>+L16/L18</f>
+        <f t="shared" ref="L17:Q17" si="18">+L16/L18</f>
         <v>-0.14901010951979782</v>
       </c>
       <c r="M17" s="10">
-        <f>+M16/M18</f>
+        <f t="shared" si="18"/>
         <v>-0.50779415460067401</v>
       </c>
       <c r="N17" s="10">
-        <f>+N16/N18</f>
+        <f t="shared" si="18"/>
         <v>8.1285428335940352E-2</v>
       </c>
       <c r="O17" s="10">
-        <f>+O16/O18</f>
+        <f t="shared" si="18"/>
         <v>-1.3874910839041245E-2</v>
       </c>
       <c r="P17" s="10">
-        <f>+P16/P18</f>
+        <f t="shared" si="18"/>
         <v>2.9160656504619711E-2</v>
       </c>
       <c r="Q17" s="10">
-        <f>+Q16/Q18</f>
+        <f t="shared" si="18"/>
         <v>-0.18941796901362284</v>
       </c>
-      <c r="R17" s="4"/>
+      <c r="R17" s="4">
+        <f>+R16/R18</f>
+        <v>-1.8724943308487944E-2</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2855,7 +2928,9 @@
       <c r="Q18" s="4">
         <v>103.723</v>
       </c>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4">
+        <v>104.51300000000001</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -2913,184 +2988,187 @@
       </c>
       <c r="AN18" s="2">
         <f>AVERAGE(O18:R18)</f>
-        <v>102.89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
+        <v>103.29575</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:R20" si="18">+G5/C5-1</f>
+        <f t="shared" ref="G20:R20" si="19">+G5/C5-1</f>
         <v>1.9488048069846498E-2</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.8929050071040621E-2</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4.1892033360086511E-2</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.0960779304660551E-2</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-7.2402642352801583E-2</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-6.0948742046312399E-2</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-4.1793382259209921E-2</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-8.3852763008484765E-2</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-7.0633951844606413E-2</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.10776962915566068</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.13464340466507041</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="18"/>
-        <v>-0.2446286179363466</v>
-      </c>
-      <c r="S20" s="7"/>
+        <f t="shared" si="19"/>
+        <v>-0.23930910116125048</v>
+      </c>
+      <c r="S20" s="7">
+        <f>+S5/O5-1</f>
+        <v>-0.36334958416977348</v>
+      </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="Y20" s="8">
-        <f t="shared" ref="Y20:AN20" si="19">+Y5/X5-1</f>
+        <f t="shared" ref="Y20:AN20" si="20">+Y5/X5-1</f>
         <v>5.2889823823297402</v>
       </c>
       <c r="Z20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.1133085253167199</v>
       </c>
       <c r="AA20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.15508789836290138</v>
       </c>
       <c r="AB20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.24018416677324472</v>
       </c>
       <c r="AC20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.19800406873728504</v>
       </c>
       <c r="AD20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.19273794385209819</v>
       </c>
       <c r="AE20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.1353720385521293E-2</v>
       </c>
       <c r="AF20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.15689195780643916</v>
       </c>
       <c r="AG20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.8411586445747936E-3</v>
       </c>
       <c r="AH20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.25882712709651612</v>
       </c>
       <c r="AI20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.27980839904822408</v>
       </c>
       <c r="AJ20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.56801467904196867</v>
       </c>
       <c r="AK20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.2047481290875286</v>
       </c>
       <c r="AL20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.2068043773711179E-2</v>
       </c>
       <c r="AM20" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-6.5982785171933234E-2</v>
       </c>
       <c r="AN20" s="8">
-        <f t="shared" si="19"/>
-        <v>-0.13988370713183806</v>
-      </c>
-    </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>-0.13848763428475697</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" ref="C21:J21" si="20">+C7/C5</f>
+        <f t="shared" ref="C21:J21" si="21">+C7/C5</f>
         <v>0.64016171148010359</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.69413234716190209</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.60974049388747364</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.73147536716682648</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.72763098039991292</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.76538740043446785</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.72560838659940874</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.74938716233009894</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" ref="K21:O21" si="21">+K7/K5</f>
+        <f t="shared" ref="K21:O21" si="22">+K7/K5</f>
         <v>0.73800779313543097</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.74070975045528376</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.47055506987469436</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.75634485363349591</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.73331230283911675</v>
       </c>
       <c r="P21" s="7">
@@ -3103,7 +3181,7 @@
       </c>
       <c r="R21" s="7">
         <f>+R7/R5</f>
-        <v>0</v>
+        <v>0.68112587412587422</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -3126,24 +3204,24 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" ref="K23:N23" si="22">+K24-K38</f>
+        <f t="shared" ref="K23:N23" si="23">+K24-K38</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O23" s="4">
@@ -3159,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,7 +3250,7 @@
         <v>605.38900000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -3183,7 +3261,7 @@
         <v>20.963999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
@@ -3194,7 +3272,7 @@
         <v>30.841000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -3205,7 +3283,7 @@
         <v>36.279000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3216,7 +3294,7 @@
         <v>179.27799999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -3229,7 +3307,7 @@
         <v>202.61700000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
@@ -3240,7 +3318,7 @@
         <v>21.507999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -3251,7 +3329,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -3262,7 +3340,7 @@
         <v>15.167</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>49</v>
       </c>
@@ -3275,11 +3353,11 @@
         <v>1114.3300000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>57</v>
       </c>
@@ -3290,7 +3368,7 @@
         <v>14.423999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>56</v>
       </c>
@@ -3301,7 +3379,7 @@
         <v>45.023000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>55</v>
       </c>
@@ -3312,7 +3390,7 @@
         <v>68.001000000000005</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3325,7 +3403,7 @@
         <v>600.91700000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -3336,7 +3414,7 @@
         <v>15.595000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>53</v>
       </c>
@@ -3347,7 +3425,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>52</v>
       </c>
@@ -3358,7 +3436,7 @@
         <v>365.5</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>51</v>
       </c>
@@ -3371,7 +3449,7 @@
         <v>1114.33</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>58</v>
       </c>
@@ -3384,7 +3462,7 @@
         <v>2.9920000000000009</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>59</v>
       </c>
@@ -3400,7 +3478,7 @@
         <v>-212.63899999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>60</v>
       </c>
@@ -3416,7 +3494,7 @@
         <v>21.930999999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -3432,7 +3510,7 @@
         <v>19.573000000000004</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>62</v>
       </c>
@@ -3448,7 +3526,7 @@
         <v>7.1000000000007724E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>54</v>
       </c>
@@ -3464,7 +3542,7 @@
         <v>1.5060000000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>63</v>
       </c>
@@ -3480,7 +3558,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>64</v>
       </c>
@@ -3494,7 +3572,7 @@
         <v>194.05100000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>65</v>
       </c>
@@ -3510,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>48</v>
       </c>
@@ -3526,7 +3604,7 @@
         <v>5.2399999999999993</v>
       </c>
     </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>66</v>
       </c>
@@ -3543,7 +3621,7 @@
         <v>7.2279999999999891</v>
       </c>
     </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>38</v>
       </c>
@@ -3559,11 +3637,15 @@
         <f>SUM(Q45:Q54)</f>
         <v>37.508000000000067</v>
       </c>
-    </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="R55" s="4">
+        <f>125.205-Q55-P55-O55</f>
+        <v>20.151999999999916</v>
+      </c>
+    </row>
+    <row r="56" spans="2:39" x14ac:dyDescent="0.25">
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>38</v>
       </c>
@@ -3590,8 +3672,15 @@
         <v>14.227000000000004</v>
       </c>
       <c r="Q57" s="4">
-        <f>67.545-P57</f>
-        <v>53.317999999999998</v>
+        <f>+Q55</f>
+        <v>37.508000000000067</v>
+      </c>
+      <c r="R57" s="4">
+        <f>+R55</f>
+        <v>20.151999999999916</v>
+      </c>
+      <c r="S57" s="3">
+        <v>13</v>
       </c>
       <c r="AA57" s="2">
         <v>32.753999999999998</v>
@@ -3633,7 +3722,7 @@
         <v>246.19800000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>39</v>
       </c>
@@ -3663,6 +3752,14 @@
         <f>61.659-P58-O58</f>
         <v>15.841999999999995</v>
       </c>
+      <c r="R58" s="4">
+        <f>74.953-Q58-P58-O58</f>
+        <v>13.294000000000008</v>
+      </c>
+      <c r="S58" s="4">
+        <f>+O58*0.6</f>
+        <v>16.810199999999998</v>
+      </c>
       <c r="AA58" s="2">
         <v>-2.7069999999999999</v>
       </c>
@@ -3703,76 +3800,84 @@
         <v>83.052000000000007</v>
       </c>
     </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>40</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" ref="K59:Q59" si="23">+K57-K58</f>
+        <f t="shared" ref="K59:Q59" si="24">+K57-K58</f>
         <v>55.994</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46.049000000000021</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.3729999999999798</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>51.730000000000004</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25.300999999999998</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-3.5729999999999968</v>
       </c>
       <c r="Q59" s="4">
-        <f t="shared" si="23"/>
-        <v>37.475999999999999</v>
+        <f t="shared" si="24"/>
+        <v>21.666000000000071</v>
+      </c>
+      <c r="R59" s="4">
+        <f>+R57-R58</f>
+        <v>6.8579999999999082</v>
+      </c>
+      <c r="S59" s="4">
+        <f>+S57-S58</f>
+        <v>-3.8101999999999983</v>
       </c>
       <c r="AA59" s="2">
-        <f t="shared" ref="AA59:AJ59" si="24">+AA57-AA58</f>
+        <f t="shared" ref="AA59:AJ59" si="25">+AA57-AA58</f>
         <v>35.460999999999999</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>39.533000000000001</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>56.337000000000003</v>
       </c>
       <c r="AD59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>63.391999999999996</v>
       </c>
       <c r="AE59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.3350000000000009</v>
       </c>
       <c r="AF59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.24899999999999878</v>
       </c>
       <c r="AG59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>20.326999999999998</v>
       </c>
       <c r="AH59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>43.89</v>
       </c>
       <c r="AI59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>71.076999999999998</v>
       </c>
       <c r="AJ59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>155.125</v>
       </c>
       <c r="AK59" s="2">
@@ -3788,7 +3893,7 @@
         <v>163.14600000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>39</v>
       </c>
@@ -3800,7 +3905,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>73</v>
       </c>
@@ -3813,7 +3918,7 @@
         <v>-5.4819999999999922</v>
       </c>
     </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>72</v>
       </c>
@@ -3826,10 +3931,10 @@
         <v>-23.281999999999993</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P65" s="4"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>71</v>
       </c>
@@ -3840,7 +3945,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -3852,7 +3957,7 @@
         <v>-3.5310000000000006</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>69</v>
       </c>
@@ -3865,7 +3970,7 @@
         <v>-1.3410000000000006</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>68</v>
       </c>
@@ -3876,7 +3981,7 @@
         <v>-0.30499999999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -3889,7 +3994,7 @@
         <v>-10.700999999999976</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>88</v>
       </c>

--- a/CHGG.xlsx
+++ b/CHGG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864FFFB-65C9-4FDD-AC2B-641640DC83E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6711E2-9DCD-49DD-8A26-7E2D12F30CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="3150" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
+    <workbookView xWindow="-29895" yWindow="2205" windowWidth="29040" windowHeight="16920" activeTab="1" xr2:uid="{73DE5435-C43E-4251-B598-C2080125F381}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -918,9 +918,9 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>77</v>
       </c>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -945,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -957,7 +957,7 @@
         <v>103.66987899999999</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -972,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -987,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>79</v>
       </c>
@@ -999,7 +999,7 @@
         <v>99.197879</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>80</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -1015,17 +1015,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>85</v>
       </c>
@@ -1043,27 +1043,27 @@
   <dimension ref="A1:AY75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T57" sqref="T57:T59"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="9.1796875" style="3"/>
-    <col min="18" max="18" width="9.36328125" style="3" customWidth="1"/>
-    <col min="19" max="32" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.42578125" style="3" customWidth="1"/>
+    <col min="19" max="32" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1262,7 +1262,9 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="S3" s="4">
+        <v>3200</v>
+      </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -1275,11 +1277,11 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="AE4"/>
       <c r="AF4"/>
     </row>
-    <row r="5" spans="1:51" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>143</v>
       </c>
       <c r="S5" s="6">
-        <v>111</v>
+        <v>121.4</v>
       </c>
       <c r="T5" s="6">
         <f>+P5*0.9</f>
@@ -1447,7 +1449,7 @@
         <v>193.65157741535077</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>180.92699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>436.16999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>170.43100000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1928,7 +1930,7 @@
         <v>108.32899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>217.75599999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>496.51599999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>-60.346000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2435,7 +2437,7 @@
         <v>49.373000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>-10.972999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>9.0589999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>-20.031999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2879,7 +2881,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>103.29575</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3045,7 +3047,7 @@
       </c>
       <c r="S20" s="7">
         <f>+S5/O5-1</f>
-        <v>-0.36334958416977348</v>
+        <v>-0.30369945511901342</v>
       </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -3115,7 +3117,7 @@
         <v>-0.13848763428475697</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -3204,7 +3206,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>605.38900000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>20.963999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>30.841000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -3283,7 +3285,7 @@
         <v>36.279000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3294,7 +3296,7 @@
         <v>179.27799999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>202.61700000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>21.507999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -3340,7 +3342,7 @@
         <v>15.167</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>49</v>
       </c>
@@ -3353,11 +3355,11 @@
         <v>1114.3300000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>57</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>14.423999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>56</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>45.023000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>55</v>
       </c>
@@ -3390,7 +3392,7 @@
         <v>68.001000000000005</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>600.91700000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>15.595000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>53</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>52</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>365.5</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>51</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>1114.33</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>58</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>2.9920000000000009</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>59</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>-212.63899999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>60</v>
       </c>
@@ -3494,7 +3496,7 @@
         <v>21.930999999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>19.573000000000004</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>62</v>
       </c>
@@ -3526,7 +3528,7 @@
         <v>7.1000000000007724E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>54</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>1.5060000000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>63</v>
       </c>
@@ -3558,7 +3560,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>64</v>
       </c>
@@ -3572,7 +3574,7 @@
         <v>194.05100000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>65</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>48</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>5.2399999999999993</v>
       </c>
     </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>66</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>7.2279999999999891</v>
       </c>
     </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>38</v>
       </c>
@@ -3642,10 +3644,10 @@
         <v>20.151999999999916</v>
       </c>
     </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>38</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>246.19800000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>39</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>83.052000000000007</v>
       </c>
     </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>40</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>163.14600000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>39</v>
       </c>
@@ -3905,7 +3907,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>73</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>-5.4819999999999922</v>
       </c>
     </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>72</v>
       </c>
@@ -3931,10 +3933,10 @@
         <v>-23.281999999999993</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="P65" s="4"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>71</v>
       </c>
@@ -3945,7 +3947,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>-3.5310000000000006</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>69</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>-1.3410000000000006</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>68</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>-0.30499999999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>-10.700999999999976</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>88</v>
       </c>
